--- a/BackTest/2019-11-15 BackTest FNB.xlsx
+++ b/BackTest/2019-11-15 BackTest FNB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>13.08</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-60</v>
+      </c>
       <c r="L13" t="n">
         <v>13.07</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>13.05</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.8999999999999968</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>13.04</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>13.04</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>13.04</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>13.04</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>13.05</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>60</v>
+      </c>
       <c r="L20" t="n">
         <v>13.07</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L21" t="n">
         <v>13.11</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.299999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L22" t="n">
         <v>13.15</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>28.57142857142867</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L23" t="n">
         <v>13.2</v>
@@ -1466,7 +1488,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666679</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L24" t="n">
         <v>13.24</v>
@@ -1515,7 +1537,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>16.66666666666679</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L25" t="n">
         <v>13.27</v>
@@ -1564,7 +1586,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666679</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>13.29000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K27" t="n">
-        <v>27.27272727272739</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>13.32000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K28" t="n">
-        <v>27.27272727272739</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>13.35000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K29" t="n">
-        <v>40.00000000000011</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>13.38000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K30" t="n">
-        <v>40.00000000000011</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>13.40000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>55.55555555555565</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>13.41000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>27.27272727272718</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L32" t="n">
         <v>13.40000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>42.85714285714282</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L33" t="n">
         <v>13.41000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>2.199999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>28.57142857142859</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>13.41000000000001</v>
@@ -2013,7 +2035,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>6.666666666666635</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L35" t="n">
         <v>13.39000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>2.5</v>
       </c>
       <c r="K36" t="n">
-        <v>6.666666666666746</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L36" t="n">
         <v>13.38000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.699999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>24.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>13.39000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>12.50000000000004</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L38" t="n">
         <v>13.38000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>13.37000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>12.50000000000004</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>13.37000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>12.49999999999994</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L41" t="n">
         <v>13.38000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>13.41000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>6.666666666666635</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L43" t="n">
         <v>13.41000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.999999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L44" t="n">
         <v>13.41000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>-11.11111111111116</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L45" t="n">
         <v>13.41000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>3.4</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L46" t="n">
         <v>13.42000000000001</v>
@@ -2625,7 +2647,7 @@
         <v>3.5</v>
       </c>
       <c r="K47" t="n">
-        <v>-4.761904761904738</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L47" t="n">
         <v>13.40000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>3.5</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.999999999999947</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L48" t="n">
         <v>13.39000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L49" t="n">
         <v>13.37000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L50" t="n">
         <v>13.37000000000001</v>
@@ -2829,7 +2851,7 @@
         <v>3.800000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L51" t="n">
         <v>13.36000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>3.900000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>13.36000000000001</v>
@@ -2931,7 +2953,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-5.263157894736812</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>13.35000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.263157894736812</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L54" t="n">
         <v>13.34000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>4.200000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>13.36000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>13.35000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>4.5</v>
       </c>
       <c r="K58" t="n">
-        <v>5.882352941176446</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L58" t="n">
         <v>13.37000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.263157894736822</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L60" t="n">
         <v>13.38000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-11.11111111111107</v>
+        <v>-25</v>
       </c>
       <c r="L61" t="n">
         <v>13.37000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>4.800000000000001</v>
       </c>
       <c r="K62" t="n">
-        <v>-15.78947368421055</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L62" t="n">
         <v>13.34000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L63" t="n">
         <v>13.35000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>4.761904761904738</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L64" t="n">
         <v>13.37000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>15.78947368421055</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L65" t="n">
         <v>13.38000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>5.200000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L66" t="n">
         <v>13.39000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>5.200000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>5.882352941176446</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L67" t="n">
         <v>13.40000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L68" t="n">
         <v>13.38000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>5.882352941176556</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>13.37000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>5.4</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L70" t="n">
         <v>13.38000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>5.5</v>
       </c>
       <c r="K71" t="n">
-        <v>5.882352941176458</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L71" t="n">
         <v>13.40000000000001</v>
@@ -3900,7 +3922,7 @@
         <v>5.6</v>
       </c>
       <c r="K72" t="n">
-        <v>5.882352941176458</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>13.44000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>5.882352941176458</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>13.44000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>17.64705882352937</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>13.45000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>5.999999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>5.882352941176458</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>13.44000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>5.999999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>5.882352941176458</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>13.44000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>6.199999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>5.882352941176458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>13.47000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>22.22222222222225</v>
+        <v>40.00000000000011</v>
       </c>
       <c r="L79" t="n">
         <v>13.52000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>6.6</v>
       </c>
       <c r="K80" t="n">
-        <v>15.78947368421047</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L80" t="n">
         <v>13.54000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>6.6</v>
       </c>
       <c r="K81" t="n">
-        <v>15.78947368421047</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>13.55000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>6.699999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>15.78947368421058</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>13.54000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>11.11111111111109</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L83" t="n">
         <v>13.56000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>6.899999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>11.11111111111109</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L84" t="n">
         <v>13.57</v>
@@ -4563,7 +4585,7 @@
         <v>6.999999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>5.263157894736832</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L85" t="n">
         <v>13.59</v>
@@ -4614,7 +4636,7 @@
         <v>6.999999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>11.11111111111109</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L86" t="n">
         <v>13.61</v>
@@ -4665,7 +4687,7 @@
         <v>6.999999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>13.63</v>
@@ -4716,7 +4738,7 @@
         <v>7.099999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>22.22222222222218</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L88" t="n">
         <v>13.64</v>
@@ -4767,7 +4789,7 @@
         <v>7.299999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>9.999999999999982</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>13.61</v>
@@ -4818,7 +4840,7 @@
         <v>7.399999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L90" t="n">
         <v>13.59</v>
@@ -4869,7 +4891,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.999999999999982</v>
+        <v>-25</v>
       </c>
       <c r="L91" t="n">
         <v>13.56</v>
@@ -4920,7 +4942,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>-15.7894736842105</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L92" t="n">
         <v>13.54</v>
@@ -4971,7 +4993,7 @@
         <v>7.499999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.11111111111109</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L93" t="n">
         <v>13.50000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>7.599999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>-11.11111111111109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>13.47000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K95" t="n">
-        <v>5.882352941176458</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>13.46000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K96" t="n">
-        <v>5.882352941176458</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>13.45000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>7.799999999999995</v>
       </c>
       <c r="K97" t="n">
-        <v>11.11111111111109</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>13.45000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>7.899999999999995</v>
       </c>
       <c r="K98" t="n">
-        <v>5.882352941176458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>13.45000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>7.999999999999996</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L99" t="n">
         <v>13.48000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>6.666666666666651</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L100" t="n">
         <v>13.51000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>6.666666666666651</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L101" t="n">
         <v>13.55000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571425</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L102" t="n">
         <v>13.59</v>
@@ -5481,7 +5503,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L103" t="n">
         <v>13.63</v>
@@ -5532,7 +5554,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L104" t="n">
         <v>13.66</v>
@@ -5583,7 +5605,7 @@
         <v>8.099999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090909062</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L105" t="n">
         <v>13.68</v>
@@ -5685,7 +5707,7 @@
         <v>8.299999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>13.7</v>
@@ -5736,7 +5758,7 @@
         <v>8.499999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>-14.28571428571425</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L108" t="n">
         <v>13.68</v>
@@ -5787,7 +5809,7 @@
         <v>8.699999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>13.67</v>
@@ -5842,7 +5864,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>6.666666666666651</v>
+        <v>-25</v>
       </c>
       <c r="L110" t="n">
         <v>13.65</v>
@@ -5899,7 +5921,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K111" t="n">
-        <v>14.28571428571425</v>
+        <v>-25</v>
       </c>
       <c r="L111" t="n">
         <v>13.63</v>
@@ -5958,7 +5980,7 @@
         <v>8.999999999999995</v>
       </c>
       <c r="K112" t="n">
-        <v>6.666666666666651</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>13.6</v>
@@ -6017,7 +6039,7 @@
         <v>9.199999999999994</v>
       </c>
       <c r="K113" t="n">
-        <v>17.64705882352937</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L113" t="n">
         <v>13.59</v>
@@ -6074,7 +6096,7 @@
         <v>9.199999999999994</v>
       </c>
       <c r="K114" t="n">
-        <v>12.49999999999997</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>13.58</v>
@@ -6131,7 +6153,7 @@
         <v>9.399999999999993</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.882352941176458</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L115" t="n">
         <v>13.55</v>
@@ -6186,7 +6208,7 @@
         <v>9.399999999999993</v>
       </c>
       <c r="K116" t="n">
-        <v>-5.882352941176458</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L116" t="n">
         <v>13.53</v>
@@ -6245,7 +6267,7 @@
         <v>9.599999999999993</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L117" t="n">
         <v>13.52</v>
@@ -6308,7 +6330,7 @@
         <v>9.699999999999992</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.11111111111109</v>
+        <v>-20</v>
       </c>
       <c r="L118" t="n">
         <v>13.52</v>
@@ -6371,7 +6393,7 @@
         <v>9.699999999999992</v>
       </c>
       <c r="K119" t="n">
-        <v>-17.6470588235295</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>13.50000000000001</v>
@@ -6434,7 +6456,7 @@
         <v>9.799999999999992</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.64705882352941</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L120" t="n">
         <v>13.49000000000001</v>
@@ -6497,7 +6519,7 @@
         <v>9.899999999999991</v>
       </c>
       <c r="K121" t="n">
-        <v>-22.22222222222222</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>13.47000000000001</v>
@@ -6558,7 +6580,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K122" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L122" t="n">
         <v>13.47000000000001</v>
@@ -6619,7 +6641,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K123" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L123" t="n">
         <v>13.45000000000001</v>
@@ -6680,7 +6702,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K124" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>13.43000000000001</v>
@@ -6741,7 +6763,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>13.43000000000001</v>
@@ -6802,7 +6824,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K126" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L126" t="n">
         <v>13.43000000000001</v>
@@ -6859,7 +6881,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K127" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>13.41000000000001</v>
@@ -6916,7 +6938,7 @@
         <v>9.999999999999991</v>
       </c>
       <c r="K128" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>13.40000000000001</v>
@@ -6973,7 +6995,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>13.38000000000001</v>
@@ -7030,7 +7052,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>13.37000000000001</v>
@@ -7087,7 +7109,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>-23.07692307692318</v>
+        <v>-100</v>
       </c>
       <c r="L131" t="n">
         <v>13.36000000000001</v>
@@ -7144,7 +7166,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-16.66666666666679</v>
+        <v>-100</v>
       </c>
       <c r="L132" t="n">
         <v>13.34000000000001</v>
@@ -7201,7 +7223,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-40.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L133" t="n">
         <v>13.32000000000001</v>
@@ -7258,7 +7280,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-40.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>13.30000000000001</v>
@@ -7309,7 +7331,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-25.00000000000017</v>
+        <v>-100</v>
       </c>
       <c r="L135" t="n">
         <v>13.28</v>
@@ -7360,7 +7382,7 @@
         <v>10.29999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.11111111111107</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L136" t="n">
         <v>13.27</v>
@@ -7411,7 +7433,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-55.55555555555542</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L137" t="n">
         <v>13.24</v>
@@ -7462,7 +7484,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-49.99999999999989</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L138" t="n">
         <v>13.21</v>
@@ -7513,7 +7535,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-49.99999999999989</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L139" t="n">
         <v>13.19</v>
@@ -7564,7 +7586,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-42.85714285714278</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L140" t="n">
         <v>13.17</v>
@@ -7615,7 +7637,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L141" t="n">
         <v>13.16</v>
@@ -7666,7 +7688,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>-59.99999999999972</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L142" t="n">
         <v>13.15</v>
@@ -7717,7 +7739,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>-66.66666666666637</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L143" t="n">
         <v>13.13</v>
@@ -7768,7 +7790,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>-42.85714285714278</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L144" t="n">
         <v>13.12</v>
@@ -7819,7 +7841,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>-25.00000000000006</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L145" t="n">
         <v>13.12</v>
@@ -7870,7 +7892,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L146" t="n">
         <v>13.13</v>
@@ -7921,7 +7943,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>9.090909090909033</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L147" t="n">
         <v>13.17</v>
@@ -7972,7 +7994,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>9.090909090909033</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L148" t="n">
         <v>13.21</v>
@@ -8023,7 +8045,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>19.99999999999986</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L149" t="n">
         <v>13.25</v>
@@ -8074,7 +8096,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>19.99999999999986</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L150" t="n">
         <v>13.29</v>
@@ -8125,7 +8147,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>20.00000000000007</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L151" t="n">
         <v>13.32</v>
@@ -8176,7 +8198,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>9.090909090909207</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L152" t="n">
         <v>13.34000000000001</v>
@@ -8227,7 +8249,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>9.090909090909207</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L153" t="n">
         <v>13.37000000000001</v>
@@ -8329,7 +8351,7 @@
         <v>11.5</v>
       </c>
       <c r="K155" t="n">
-        <v>7.692307692307776</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L155" t="n">
         <v>13.39000000000001</v>
@@ -8380,7 +8402,7 @@
         <v>11.6</v>
       </c>
       <c r="K156" t="n">
-        <v>-7.692307692307776</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L156" t="n">
         <v>13.37000000000001</v>
@@ -8431,7 +8453,7 @@
         <v>11.7</v>
       </c>
       <c r="K157" t="n">
-        <v>16.66666666666669</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L157" t="n">
         <v>13.35000000000001</v>
@@ -8482,7 +8504,7 @@
         <v>11.8</v>
       </c>
       <c r="K158" t="n">
-        <v>23.07692307692306</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L158" t="n">
         <v>13.34000000000001</v>
@@ -8533,7 +8555,7 @@
         <v>11.9</v>
       </c>
       <c r="K159" t="n">
-        <v>28.57142857142851</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>13.34000000000001</v>
@@ -8584,7 +8606,7 @@
         <v>12.1</v>
       </c>
       <c r="K160" t="n">
-        <v>12.50000000000004</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L160" t="n">
         <v>13.32000000000001</v>
@@ -8635,7 +8657,7 @@
         <v>12.2</v>
       </c>
       <c r="K161" t="n">
-        <v>17.64705882352942</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L161" t="n">
         <v>13.32000000000001</v>
@@ -8686,7 +8708,7 @@
         <v>12.3</v>
       </c>
       <c r="K162" t="n">
-        <v>11.11111111111116</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>13.32000000000001</v>
@@ -8737,7 +8759,7 @@
         <v>12.4</v>
       </c>
       <c r="K163" t="n">
-        <v>11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>13.31000000000001</v>
@@ -8788,7 +8810,7 @@
         <v>12.4</v>
       </c>
       <c r="K164" t="n">
-        <v>5.882352941176434</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L164" t="n">
         <v>13.31000000000001</v>
@@ -8890,7 +8912,7 @@
         <v>12.6</v>
       </c>
       <c r="K166" t="n">
-        <v>-24.99999999999997</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L166" t="n">
         <v>13.28000000000001</v>
@@ -8941,7 +8963,7 @@
         <v>12.6</v>
       </c>
       <c r="K167" t="n">
-        <v>-33.33333333333325</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L167" t="n">
         <v>13.25000000000001</v>
@@ -8992,7 +9014,7 @@
         <v>12.8</v>
       </c>
       <c r="K168" t="n">
-        <v>-17.64705882352942</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L168" t="n">
         <v>13.23</v>
@@ -9043,7 +9065,7 @@
         <v>12.8</v>
       </c>
       <c r="K169" t="n">
-        <v>-17.64705882352942</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L169" t="n">
         <v>13.2</v>
@@ -9094,7 +9116,7 @@
         <v>12.8</v>
       </c>
       <c r="K170" t="n">
-        <v>-17.64705882352942</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L170" t="n">
         <v>13.19</v>
@@ -9145,7 +9167,7 @@
         <v>12.8</v>
       </c>
       <c r="K171" t="n">
-        <v>-12.50000000000004</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L171" t="n">
         <v>13.17</v>
@@ -9196,7 +9218,7 @@
         <v>12.8</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.666666666666746</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>13.16</v>
@@ -9247,7 +9269,7 @@
         <v>12.8</v>
       </c>
       <c r="K173" t="n">
-        <v>-6.666666666666746</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>13.16</v>
@@ -9349,7 +9371,7 @@
         <v>13</v>
       </c>
       <c r="K175" t="n">
-        <v>-20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>13.14</v>
@@ -9400,7 +9422,7 @@
         <v>13.1</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666651</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>13.15</v>
@@ -9451,7 +9473,7 @@
         <v>13.1</v>
       </c>
       <c r="K177" t="n">
-        <v>-14.28571428571439</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>13.16</v>
@@ -9502,7 +9524,7 @@
         <v>13.1</v>
       </c>
       <c r="K178" t="n">
-        <v>-23.07692307692318</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>13.15</v>
@@ -9553,7 +9575,7 @@
         <v>13.4</v>
       </c>
       <c r="K179" t="n">
-        <v>-46.66666666666673</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L179" t="n">
         <v>13.11</v>
@@ -9604,7 +9626,7 @@
         <v>13.5</v>
       </c>
       <c r="K180" t="n">
-        <v>-42.857142857143</v>
+        <v>-71.4285714285715</v>
       </c>
       <c r="L180" t="n">
         <v>13.06</v>
@@ -9655,7 +9677,7 @@
         <v>13.6</v>
       </c>
       <c r="K181" t="n">
-        <v>-42.85714285714282</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L181" t="n">
         <v>13.02</v>
@@ -9706,7 +9728,7 @@
         <v>13.7</v>
       </c>
       <c r="K182" t="n">
-        <v>-42.8571428571429</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L182" t="n">
         <v>12.97</v>
@@ -9757,7 +9779,7 @@
         <v>13.8</v>
       </c>
       <c r="K183" t="n">
-        <v>-28.57142857142843</v>
+        <v>-39.99999999999972</v>
       </c>
       <c r="L183" t="n">
         <v>12.93</v>
@@ -9808,7 +9830,7 @@
         <v>13.9</v>
       </c>
       <c r="K184" t="n">
-        <v>-33.33333333333325</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L184" t="n">
         <v>12.88</v>
@@ -9859,7 +9881,7 @@
         <v>13.9</v>
       </c>
       <c r="K185" t="n">
-        <v>-33.33333333333325</v>
+        <v>-49.99999999999967</v>
       </c>
       <c r="L185" t="n">
         <v>12.85</v>
@@ -9910,7 +9932,7 @@
         <v>14</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571418</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L186" t="n">
         <v>12.82</v>
@@ -9961,7 +9983,7 @@
         <v>14.1</v>
       </c>
       <c r="K187" t="n">
-        <v>-6.666666666666619</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L187" t="n">
         <v>12.80000000000001</v>
@@ -10012,7 +10034,7 @@
         <v>14.1</v>
       </c>
       <c r="K188" t="n">
-        <v>-23.07692307692289</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L188" t="n">
         <v>12.78000000000001</v>
@@ -10063,7 +10085,7 @@
         <v>14.1</v>
       </c>
       <c r="K189" t="n">
-        <v>-23.07692307692289</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L189" t="n">
         <v>12.79000000000001</v>
@@ -10114,7 +10136,7 @@
         <v>14.2</v>
       </c>
       <c r="K190" t="n">
-        <v>-28.57142857142835</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>12.80000000000001</v>
@@ -10165,7 +10187,7 @@
         <v>14.3</v>
       </c>
       <c r="K191" t="n">
-        <v>-19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>12.81000000000001</v>
@@ -10216,7 +10238,7 @@
         <v>14.3</v>
       </c>
       <c r="K192" t="n">
-        <v>-19.99999999999986</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L192" t="n">
         <v>12.83000000000001</v>
@@ -10267,7 +10289,7 @@
         <v>14.3</v>
       </c>
       <c r="K193" t="n">
-        <v>-19.99999999999986</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L193" t="n">
         <v>12.84000000000001</v>
@@ -10318,7 +10340,7 @@
         <v>14.4</v>
       </c>
       <c r="K194" t="n">
-        <v>-12.49999999999992</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L194" t="n">
         <v>12.87000000000001</v>
@@ -10369,7 +10391,7 @@
         <v>14.5</v>
       </c>
       <c r="K195" t="n">
-        <v>-6.666666666666619</v>
+        <v>20</v>
       </c>
       <c r="L195" t="n">
         <v>12.89000000000001</v>
@@ -10420,7 +10442,7 @@
         <v>14.5</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>12.90000000000001</v>
@@ -10471,7 +10493,7 @@
         <v>14.6</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.666666666666619</v>
+        <v>20</v>
       </c>
       <c r="L197" t="n">
         <v>12.91000000000001</v>
@@ -10522,7 +10544,7 @@
         <v>14.7</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>12.91000000000001</v>
@@ -10573,7 +10595,7 @@
         <v>14.7</v>
       </c>
       <c r="K199" t="n">
-        <v>7.692307692307629</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>12.91000000000001</v>
@@ -10624,7 +10646,7 @@
         <v>14.8</v>
       </c>
       <c r="K200" t="n">
-        <v>23.07692307692306</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>12.93000000000001</v>
@@ -10675,7 +10697,7 @@
         <v>14.8</v>
       </c>
       <c r="K201" t="n">
-        <v>16.66666666666657</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>12.94000000000001</v>
@@ -10726,7 +10748,7 @@
         <v>14.9</v>
       </c>
       <c r="K202" t="n">
-        <v>16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>12.94000000000001</v>
@@ -10777,7 +10799,7 @@
         <v>14.9</v>
       </c>
       <c r="K203" t="n">
-        <v>9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L203" t="n">
         <v>12.94000000000001</v>
@@ -10828,7 +10850,7 @@
         <v>15</v>
       </c>
       <c r="K204" t="n">
-        <v>27.27272727272739</v>
+        <v>20</v>
       </c>
       <c r="L204" t="n">
         <v>12.94000000000001</v>
@@ -10879,7 +10901,7 @@
         <v>15.1</v>
       </c>
       <c r="K205" t="n">
-        <v>16.66666666666679</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
         <v>12.94000000000001</v>
@@ -10930,7 +10952,7 @@
         <v>15.2</v>
       </c>
       <c r="K206" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>12.95000000000001</v>
@@ -10981,7 +11003,7 @@
         <v>15.2</v>
       </c>
       <c r="K207" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>12.95000000000001</v>
@@ -11032,7 +11054,7 @@
         <v>15.2</v>
       </c>
       <c r="K208" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>12.96000000000001</v>
@@ -11083,7 +11105,7 @@
         <v>15.4</v>
       </c>
       <c r="K209" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>12.95000000000001</v>
@@ -11134,7 +11156,7 @@
         <v>15.5</v>
       </c>
       <c r="K210" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>12.94000000000001</v>
@@ -11185,7 +11207,7 @@
         <v>15.6</v>
       </c>
       <c r="K211" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L211" t="n">
         <v>12.92000000000001</v>
@@ -11236,7 +11258,7 @@
         <v>15.7</v>
       </c>
       <c r="K212" t="n">
-        <v>-14.28571428571439</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L212" t="n">
         <v>12.90000000000001</v>
@@ -11287,7 +11309,7 @@
         <v>15.9</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L213" t="n">
         <v>12.90000000000001</v>
@@ -11338,7 +11360,7 @@
         <v>16.1</v>
       </c>
       <c r="K214" t="n">
-        <v>5.882352941176452</v>
+        <v>19.99999999999989</v>
       </c>
       <c r="L214" t="n">
         <v>12.91000000000001</v>
@@ -11389,7 +11411,7 @@
         <v>16.2</v>
       </c>
       <c r="K215" t="n">
-        <v>5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>12.92000000000001</v>
@@ -11440,7 +11462,7 @@
         <v>16.2</v>
       </c>
       <c r="K216" t="n">
-        <v>5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>12.92000000000001</v>
@@ -11491,7 +11513,7 @@
         <v>16.3</v>
       </c>
       <c r="K217" t="n">
-        <v>-5.88235294117644</v>
+        <v>-9.090909090909017</v>
       </c>
       <c r="L217" t="n">
         <v>12.91000000000001</v>
@@ -11542,7 +11564,7 @@
         <v>16.3</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L218" t="n">
         <v>12.90000000000001</v>
@@ -11644,7 +11666,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>12.90000000000001</v>
@@ -11695,7 +11717,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-12.49999999999992</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L221" t="n">
         <v>12.90000000000001</v>
@@ -11797,7 +11819,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>5.882352941176421</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L223" t="n">
         <v>12.93000000000001</v>
@@ -11899,7 +11921,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>6.666666666666604</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>12.92000000000001</v>
@@ -11950,7 +11972,7 @@
         <v>16.60000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L226" t="n">
         <v>12.92000000000001</v>
@@ -12001,7 +12023,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>6.666666666666596</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L227" t="n">
         <v>12.94000000000001</v>
@@ -12052,7 +12074,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-5.882352941176415</v>
+        <v>0</v>
       </c>
       <c r="L228" t="n">
         <v>12.94000000000001</v>
@@ -12103,7 +12125,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>17.64705882352925</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L229" t="n">
         <v>12.96000000000001</v>
@@ -12154,7 +12176,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>12.49999999999988</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L230" t="n">
         <v>12.99000000000001</v>
@@ -12205,7 +12227,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>19.99999999999979</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L231" t="n">
         <v>13.02</v>
@@ -12256,7 +12278,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>28.57142857142841</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L232" t="n">
         <v>13.04</v>
@@ -12307,7 +12329,7 @@
         <v>17.30000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>28.57142857142837</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L233" t="n">
         <v>13.07</v>
@@ -12358,7 +12380,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L234" t="n">
         <v>13.08</v>
@@ -12409,7 +12431,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>45.45454545454525</v>
+        <v>55.55555555555542</v>
       </c>
       <c r="L235" t="n">
         <v>13.18</v>
@@ -12460,7 +12482,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>45.45454545454525</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L236" t="n">
         <v>13.28</v>
@@ -12511,7 +12533,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>45.45454545454525</v>
+        <v>62.49999999999981</v>
       </c>
       <c r="L237" t="n">
         <v>13.36</v>
@@ -12562,7 +12584,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>39.13043478260852</v>
+        <v>46.66666666666652</v>
       </c>
       <c r="L238" t="n">
         <v>13.45000000000001</v>
@@ -12613,7 +12635,7 @@
         <v>18.70000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>41.66666666666644</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L239" t="n">
         <v>13.53000000000001</v>
@@ -12664,7 +12686,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>53.84615384615361</v>
+        <v>57.89473684210508</v>
       </c>
       <c r="L240" t="n">
         <v>13.64000000000001</v>
@@ -12715,7 +12737,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>53.84615384615361</v>
+        <v>57.89473684210508</v>
       </c>
       <c r="L241" t="n">
         <v>13.75000000000001</v>
@@ -12766,7 +12788,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>40.74074074074063</v>
+        <v>36.84210526315781</v>
       </c>
       <c r="L242" t="n">
         <v>13.84000000000001</v>
@@ -12817,7 +12839,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>48.38709677419347</v>
+        <v>63.63636363636367</v>
       </c>
       <c r="L243" t="n">
         <v>13.96</v>
@@ -12868,7 +12890,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>51.51515151515142</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L244" t="n">
         <v>14.12</v>
@@ -12919,7 +12941,7 @@
         <v>20.30000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>56.7567567567567</v>
+        <v>57.89473684210529</v>
       </c>
       <c r="L245" t="n">
         <v>14.23</v>
@@ -12970,7 +12992,7 @@
         <v>20.60000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>59.99999999999995</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L246" t="n">
         <v>14.37</v>
@@ -13021,7 +13043,7 @@
         <v>20.80000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>51.21951219512193</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L247" t="n">
         <v>14.5</v>
@@ -13072,7 +13094,7 @@
         <v>20.90000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>59.99999999999995</v>
+        <v>63.63636363636378</v>
       </c>
       <c r="L248" t="n">
         <v>14.65</v>
@@ -13123,7 +13145,7 @@
         <v>21.20000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>60.97560975609754</v>
+        <v>63.63636363636378</v>
       </c>
       <c r="L249" t="n">
         <v>14.82</v>
@@ -13174,7 +13196,7 @@
         <v>21.30000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>57.14285714285712</v>
+        <v>56.52173913043488</v>
       </c>
       <c r="L250" t="n">
         <v>14.95</v>
@@ -13225,7 +13247,7 @@
         <v>21.60000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>46.66666666666662</v>
+        <v>50</v>
       </c>
       <c r="L251" t="n">
         <v>15.05</v>
@@ -13276,7 +13298,7 @@
         <v>21.60000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>46.66666666666662</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L252" t="n">
         <v>15.17</v>
@@ -13327,7 +13349,7 @@
         <v>21.70000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>40.9090909090909</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L253" t="n">
         <v>15.23</v>
@@ -13378,7 +13400,7 @@
         <v>21.90000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>50.00000000000004</v>
+        <v>12.50000000000006</v>
       </c>
       <c r="L254" t="n">
         <v>15.29</v>
@@ -13429,7 +13451,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>33.3333333333333</v>
+        <v>-14.28571428571434</v>
       </c>
       <c r="L255" t="n">
         <v>15.3</v>
@@ -13480,7 +13502,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>26.31578947368421</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L256" t="n">
         <v>15.26</v>
@@ -13531,7 +13553,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>23.07692307692309</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>15.22</v>
@@ -13582,7 +13604,7 @@
         <v>22.40000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>26.31578947368423</v>
+        <v>-66.66666666666642</v>
       </c>
       <c r="L258" t="n">
         <v>15.17000000000001</v>
@@ -13633,7 +13655,7 @@
         <v>22.60000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>28.20512820512823</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L259" t="n">
         <v>15.11</v>
@@ -13684,7 +13706,7 @@
         <v>22.60000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>22.22222222222225</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L260" t="n">
         <v>15.06000000000001</v>
@@ -13735,7 +13757,7 @@
         <v>22.70000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>24.32432432432436</v>
+        <v>-9.090909090909076</v>
       </c>
       <c r="L261" t="n">
         <v>15.05000000000001</v>
@@ -13786,7 +13808,7 @@
         <v>22.90000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>35.13513513513516</v>
+        <v>16.66666666666671</v>
       </c>
       <c r="L262" t="n">
         <v>15.06000000000001</v>
@@ -13837,7 +13859,7 @@
         <v>23.20000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>14.28571428571428</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L263" t="n">
         <v>15.05000000000001</v>
@@ -13888,7 +13910,7 @@
         <v>23.30000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>11.76470588235296</v>
+        <v>-7.692307692307682</v>
       </c>
       <c r="L264" t="n">
         <v>15.03000000000001</v>
@@ -13939,7 +13961,7 @@
         <v>23.30000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L265" t="n">
         <v>15.02000000000001</v>
@@ -13990,7 +14012,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.142857142857179</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L266" t="n">
         <v>15.04000000000001</v>
@@ -14041,7 +14063,7 @@
         <v>23.40000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L267" t="n">
         <v>15.08</v>
@@ -14092,7 +14114,7 @@
         <v>23.50000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>15.13</v>
@@ -14143,7 +14165,7 @@
         <v>23.60000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-16.66666666666664</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L269" t="n">
         <v>15.15</v>
@@ -14194,7 +14216,7 @@
         <v>23.70000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>-8.333333333333284</v>
+        <v>19.99999999999996</v>
       </c>
       <c r="L270" t="n">
         <v>15.18</v>
@@ -14245,7 +14267,7 @@
         <v>23.90000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-4.347826086956492</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L271" t="n">
         <v>15.18</v>
@@ -14296,7 +14318,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>-29.03225806451604</v>
+        <v>-46.66666666666651</v>
       </c>
       <c r="L272" t="n">
         <v>15.08</v>
@@ -14347,7 +14369,7 @@
         <v>24.80000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>-22.58064516129024</v>
+        <v>-46.6666666666664</v>
       </c>
       <c r="L273" t="n">
         <v>15.02</v>
@@ -14398,7 +14420,7 @@
         <v>24.90000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>-33.33333333333325</v>
+        <v>-49.99999999999967</v>
       </c>
       <c r="L274" t="n">
         <v>14.94000000000001</v>
@@ -14449,7 +14471,7 @@
         <v>25.00000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>-33.33333333333325</v>
+        <v>-62.49999999999967</v>
       </c>
       <c r="L275" t="n">
         <v>14.85</v>
@@ -14500,7 +14522,7 @@
         <v>25.20000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>-33.33333333333325</v>
+        <v>-66.66666666666634</v>
       </c>
       <c r="L276" t="n">
         <v>14.73000000000001</v>
@@ -14551,7 +14573,7 @@
         <v>25.30000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>-24.13793103448275</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L277" t="n">
         <v>14.62000000000001</v>
@@ -14602,7 +14624,7 @@
         <v>25.40000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>-26.66666666666663</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L278" t="n">
         <v>14.49000000000001</v>
@@ -14653,7 +14675,7 @@
         <v>25.50000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>-31.0344827586206</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L279" t="n">
         <v>14.38000000000001</v>
@@ -14704,7 +14726,7 @@
         <v>25.60000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>-26.66666666666659</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L280" t="n">
         <v>14.27</v>
@@ -14755,7 +14777,7 @@
         <v>25.60000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>-31.03448275862056</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L281" t="n">
         <v>14.18</v>
@@ -14806,7 +14828,7 @@
         <v>25.70000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>-35.71428571428557</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L282" t="n">
         <v>14.18</v>
@@ -14857,7 +14879,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K283" t="n">
-        <v>-23.07692307692296</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L283" t="n">
         <v>14.18</v>
@@ -14908,7 +14930,7 @@
         <v>25.90000000000003</v>
       </c>
       <c r="K284" t="n">
-        <v>-23.07692307692292</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L284" t="n">
         <v>14.2</v>
@@ -14959,7 +14981,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K285" t="n">
-        <v>-6.666666666666611</v>
+        <v>81.81818181818147</v>
       </c>
       <c r="L285" t="n">
         <v>14.27</v>
@@ -15010,7 +15032,7 @@
         <v>26.70000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>-21.21212121212112</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L286" t="n">
         <v>14.32</v>
@@ -15061,7 +15083,7 @@
         <v>27.00000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.11111111111103</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L287" t="n">
         <v>14.39000000000001</v>
@@ -15112,7 +15134,7 @@
         <v>27.30000000000003</v>
       </c>
       <c r="K288" t="n">
-        <v>-21.05263157894732</v>
+        <v>22.22222222222219</v>
       </c>
       <c r="L288" t="n">
         <v>14.44000000000001</v>
@@ -15163,7 +15185,7 @@
         <v>27.40000000000003</v>
       </c>
       <c r="K289" t="n">
-        <v>-15.78947368421047</v>
+        <v>22.22222222222219</v>
       </c>
       <c r="L289" t="n">
         <v>14.49000000000001</v>
@@ -15214,7 +15236,7 @@
         <v>27.80000000000003</v>
       </c>
       <c r="K290" t="n">
-        <v>-7.317073170731709</v>
+        <v>36.36363636363635</v>
       </c>
       <c r="L290" t="n">
         <v>14.57000000000001</v>
@@ -15265,7 +15287,7 @@
         <v>28.00000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-7.317073170731672</v>
+        <v>21.7391304347826</v>
       </c>
       <c r="L291" t="n">
         <v>14.63000000000001</v>
@@ -15316,7 +15338,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>17.64705882352937</v>
+        <v>21.73913043478263</v>
       </c>
       <c r="L292" t="n">
         <v>14.69000000000001</v>
@@ -15367,7 +15389,7 @@
         <v>28.10000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>15.15151515151513</v>
+        <v>18.18181818181823</v>
       </c>
       <c r="L293" t="n">
         <v>14.74000000000001</v>
@@ -15418,7 +15440,7 @@
         <v>28.20000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>15.15151515151513</v>
+        <v>-5.263157894736827</v>
       </c>
       <c r="L294" t="n">
         <v>14.77000000000001</v>
@@ -15469,7 +15491,7 @@
         <v>28.40000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>23.52941176470589</v>
+        <v>29.41176470588237</v>
       </c>
       <c r="L295" t="n">
         <v>14.78000000000001</v>
@@ -15520,7 +15542,7 @@
         <v>28.40000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>31.24999999999997</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L296" t="n">
         <v>14.83000000000001</v>
@@ -15571,7 +15593,7 @@
         <v>28.50000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>31.24999999999997</v>
+        <v>50.00000000000014</v>
       </c>
       <c r="L297" t="n">
         <v>14.86000000000001</v>
@@ -15622,7 +15644,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>19.99999999999998</v>
+        <v>6.666666666666675</v>
       </c>
       <c r="L298" t="n">
         <v>14.88000000000001</v>
@@ -15673,7 +15695,7 @@
         <v>28.90000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>17.64705882352941</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L299" t="n">
         <v>14.89000000000001</v>
@@ -15724,7 +15746,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>17.64705882352946</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>14.87000000000001</v>
@@ -15775,7 +15797,7 @@
         <v>29.00000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>17.64705882352946</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L301" t="n">
         <v>14.87000000000001</v>
@@ -15826,7 +15848,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>14.87000000000001</v>
@@ -15877,7 +15899,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>15.15151515151517</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L303" t="n">
         <v>14.87000000000001</v>
@@ -15928,7 +15950,7 @@
         <v>29.10000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>12.50000000000003</v>
+        <v>-14.28571428571425</v>
       </c>
       <c r="L304" t="n">
         <v>14.88000000000001</v>
@@ -15979,7 +16001,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>3.448275862068955</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>14.88000000000001</v>
@@ -16030,7 +16052,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>20</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L306" t="n">
         <v>14.88000000000001</v>
@@ -16081,7 +16103,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>9.090909090909062</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L307" t="n">
         <v>14.87000000000001</v>
@@ -16132,7 +16154,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>26.31578947368423</v>
+        <v>99.99999999999881</v>
       </c>
       <c r="L308" t="n">
         <v>14.90000000000001</v>
@@ -16183,7 +16205,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>22.22222222222228</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L309" t="n">
         <v>14.93000000000001</v>
@@ -16234,7 +16256,7 @@
         <v>29.20000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L310" t="n">
         <v>14.95000000000001</v>
@@ -16285,7 +16307,7 @@
         <v>29.40000000000002</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L311" t="n">
         <v>14.95000000000001</v>
@@ -16336,7 +16358,7 @@
         <v>29.40000000000002</v>
       </c>
       <c r="K312" t="n">
-        <v>-7.692307692307661</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L312" t="n">
         <v>14.94000000000001</v>

--- a/BackTest/2019-11-15 BackTest FNB.xlsx
+++ b/BackTest/2019-11-15 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>14259.4859</v>
+        <v>2820.5048</v>
       </c>
       <c r="G2" t="n">
-        <v>13.10166666666669</v>
+        <v>13.10500000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>132920.0093</v>
+        <v>14259.4859</v>
       </c>
       <c r="G3" t="n">
-        <v>13.09833333333336</v>
+        <v>13.10166666666669</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>2858.5048</v>
+        <v>132920.0093</v>
       </c>
       <c r="G4" t="n">
         <v>13.09833333333336</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C5" t="n">
         <v>13.2</v>
@@ -547,10 +547,10 @@
         <v>13.2</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F5" t="n">
-        <v>45481.1531</v>
+        <v>2858.5048</v>
       </c>
       <c r="G5" t="n">
         <v>13.09833333333336</v>
@@ -585,7 +585,7 @@
         <v>13.2</v>
       </c>
       <c r="F6" t="n">
-        <v>217.0958</v>
+        <v>45481.1531</v>
       </c>
       <c r="G6" t="n">
         <v>13.09833333333336</v>
@@ -611,19 +611,19 @@
         <v>13.2</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D7" t="n">
         <v>13.2</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F7" t="n">
-        <v>45960.1531</v>
+        <v>217.0958</v>
       </c>
       <c r="G7" t="n">
-        <v>13.09666666666669</v>
+        <v>13.09833333333336</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>13.2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D8" t="n">
         <v>13.2</v>
       </c>
       <c r="E8" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>45960.1531</v>
       </c>
       <c r="G8" t="n">
-        <v>13.09833333333336</v>
+        <v>13.09666666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F9" t="n">
-        <v>2301.4634</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>13.09666666666669</v>
+        <v>13.09833333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F10" t="n">
-        <v>612094.9785</v>
+        <v>2301.4634</v>
       </c>
       <c r="G10" t="n">
-        <v>13.09333333333336</v>
+        <v>13.09666666666669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>5867.0455</v>
+        <v>612094.9785</v>
       </c>
       <c r="G11" t="n">
-        <v>13.08833333333335</v>
+        <v>13.09333333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>12.9</v>
       </c>
       <c r="F12" t="n">
-        <v>18130.6664</v>
+        <v>5867.0455</v>
       </c>
       <c r="G12" t="n">
-        <v>13.08333333333335</v>
+        <v>13.08833333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>18130.6664</v>
       </c>
       <c r="G13" t="n">
-        <v>13.07833333333335</v>
+        <v>13.08333333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F14" t="n">
-        <v>270232.8957</v>
+        <v>200</v>
       </c>
       <c r="G14" t="n">
-        <v>13.07500000000002</v>
+        <v>13.07833333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,19 +888,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>100098.6201</v>
+        <v>270232.8957</v>
       </c>
       <c r="G15" t="n">
         <v>13.07500000000002</v>
@@ -923,19 +923,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D16" t="n">
         <v>13.2</v>
       </c>
       <c r="E16" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>44</v>
+        <v>100098.6201</v>
       </c>
       <c r="G16" t="n">
         <v>13.07500000000002</v>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F17" t="n">
-        <v>14259.4859</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
         <v>13.07500000000002</v>
@@ -993,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E18" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F18" t="n">
-        <v>99563.7271</v>
+        <v>14259.4859</v>
       </c>
       <c r="G18" t="n">
         <v>13.07500000000002</v>
@@ -1040,7 +1040,7 @@
         <v>13.2</v>
       </c>
       <c r="F19" t="n">
-        <v>24338.0323</v>
+        <v>99563.7271</v>
       </c>
       <c r="G19" t="n">
         <v>13.07500000000002</v>
@@ -1063,19 +1063,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C20" t="n">
         <v>13.2</v>
       </c>
       <c r="D20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E20" t="n">
         <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>133516.195</v>
+        <v>24338.0323</v>
       </c>
       <c r="G20" t="n">
         <v>13.07500000000002</v>
@@ -1101,19 +1101,19 @@
         <v>13.3</v>
       </c>
       <c r="C21" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D21" t="n">
         <v>13.3</v>
       </c>
       <c r="E21" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>133516.195</v>
       </c>
       <c r="G21" t="n">
-        <v>13.08166666666668</v>
+        <v>13.07500000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>13.3</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F22" t="n">
-        <v>160475.7571</v>
+        <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>13.08333333333335</v>
+        <v>13.08166666666668</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E23" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>160475.7571</v>
       </c>
       <c r="G23" t="n">
-        <v>13.08833333333335</v>
+        <v>13.08333333333335</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>13.4</v>
       </c>
       <c r="F24" t="n">
-        <v>4577.6635</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>13.09333333333335</v>
+        <v>13.08833333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>13.4</v>
       </c>
       <c r="F25" t="n">
-        <v>30521.7964</v>
+        <v>4577.6635</v>
       </c>
       <c r="G25" t="n">
-        <v>13.09833333333335</v>
+        <v>13.09333333333335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>13.4</v>
       </c>
       <c r="F26" t="n">
-        <v>37.3135</v>
+        <v>30521.7964</v>
       </c>
       <c r="G26" t="n">
-        <v>13.10333333333335</v>
+        <v>13.09833333333335</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>13.4</v>
       </c>
       <c r="F27" t="n">
-        <v>150209.8516</v>
+        <v>37.3135</v>
       </c>
       <c r="G27" t="n">
-        <v>13.11000000000001</v>
+        <v>13.10333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E28" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>150209.8516</v>
       </c>
       <c r="G28" t="n">
-        <v>13.11666666666668</v>
+        <v>13.11000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>13.5</v>
       </c>
       <c r="F29" t="n">
-        <v>37.0371</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>13.12333333333334</v>
+        <v>13.11666666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>13.5</v>
       </c>
       <c r="C30" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D30" t="n">
         <v>13.5</v>
       </c>
       <c r="E30" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3120.5167</v>
+        <v>37.0371</v>
       </c>
       <c r="G30" t="n">
-        <v>13.12833333333334</v>
+        <v>13.12333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C31" t="n">
         <v>13.4</v>
@@ -1460,10 +1460,10 @@
         <v>13.4</v>
       </c>
       <c r="F31" t="n">
-        <v>71562.048</v>
+        <v>3120.5167</v>
       </c>
       <c r="G31" t="n">
-        <v>13.13333333333334</v>
+        <v>13.12833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C32" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E32" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F32" t="n">
-        <v>139812.3311</v>
+        <v>71562.048</v>
       </c>
       <c r="G32" t="n">
-        <v>13.13500000000001</v>
+        <v>13.13333333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C33" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D33" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E33" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F33" t="n">
-        <v>187.1107</v>
+        <v>139812.3311</v>
       </c>
       <c r="G33" t="n">
-        <v>13.14000000000001</v>
+        <v>13.13500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E34" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>187.1107</v>
       </c>
       <c r="G34" t="n">
-        <v>13.14333333333334</v>
+        <v>13.14000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E35" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F35" t="n">
-        <v>4672.3698</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>13.14166666666668</v>
+        <v>13.14333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F36" t="n">
-        <v>14793.8551</v>
+        <v>4672.3698</v>
       </c>
       <c r="G36" t="n">
         <v>13.14166666666668</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E37" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>14793.8551</v>
       </c>
       <c r="G37" t="n">
-        <v>13.14500000000001</v>
+        <v>13.14166666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E38" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F38" t="n">
-        <v>14793.8551</v>
+        <v>38</v>
       </c>
       <c r="G38" t="n">
-        <v>13.15000000000001</v>
+        <v>13.14500000000001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>13.4</v>
       </c>
       <c r="F39" t="n">
-        <v>22835.5073</v>
+        <v>14793.8551</v>
       </c>
       <c r="G39" t="n">
-        <v>13.15166666666668</v>
+        <v>13.15000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>13.4</v>
       </c>
       <c r="F40" t="n">
-        <v>114595.2121</v>
+        <v>22835.5073</v>
       </c>
       <c r="G40" t="n">
-        <v>13.15666666666668</v>
+        <v>13.15166666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>13.4</v>
       </c>
       <c r="C41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D41" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E41" t="n">
         <v>13.4</v>
       </c>
       <c r="F41" t="n">
-        <v>2190</v>
+        <v>114595.2121</v>
       </c>
       <c r="G41" t="n">
-        <v>13.16333333333334</v>
+        <v>13.15666666666668</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C42" t="n">
         <v>13.5</v>
@@ -1842,13 +1842,13 @@
         <v>13.5</v>
       </c>
       <c r="E42" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F42" t="n">
-        <v>164.5419</v>
+        <v>2190</v>
       </c>
       <c r="G42" t="n">
-        <v>13.17000000000001</v>
+        <v>13.16333333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>13.5</v>
       </c>
       <c r="F43" t="n">
-        <v>20000</v>
+        <v>164.5419</v>
       </c>
       <c r="G43" t="n">
-        <v>13.17666666666667</v>
+        <v>13.17000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C44" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D44" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E44" t="n">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="F44" t="n">
-        <v>174837.4114</v>
+        <v>20000</v>
       </c>
       <c r="G44" t="n">
-        <v>13.18000000000001</v>
+        <v>13.17666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,19 +1938,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D45" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E45" t="n">
         <v>13.2</v>
       </c>
       <c r="F45" t="n">
-        <v>173670.5875</v>
+        <v>174837.4114</v>
       </c>
       <c r="G45" t="n">
         <v>13.18000000000001</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E46" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F46" t="n">
-        <v>38.7749</v>
+        <v>173670.5875</v>
       </c>
       <c r="G46" t="n">
-        <v>13.18666666666667</v>
+        <v>13.18000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E47" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F47" t="n">
-        <v>3636</v>
+        <v>38.7749</v>
       </c>
       <c r="G47" t="n">
-        <v>13.19166666666667</v>
+        <v>13.18666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>13.3</v>
       </c>
       <c r="F48" t="n">
-        <v>26015.2235</v>
+        <v>3636</v>
       </c>
       <c r="G48" t="n">
-        <v>13.19666666666667</v>
+        <v>13.19166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E49" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F49" t="n">
-        <v>138174.6315</v>
+        <v>26015.2235</v>
       </c>
       <c r="G49" t="n">
-        <v>13.20333333333334</v>
+        <v>13.19666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="C50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E50" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>138174.6315</v>
       </c>
       <c r="G50" t="n">
-        <v>13.21333333333334</v>
+        <v>13.20333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>13.4</v>
       </c>
       <c r="F51" t="n">
-        <v>1488.145</v>
+        <v>38</v>
       </c>
       <c r="G51" t="n">
-        <v>13.22000000000001</v>
+        <v>13.21333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E52" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F52" t="n">
-        <v>39</v>
+        <v>1488.145</v>
       </c>
       <c r="G52" t="n">
-        <v>13.23000000000001</v>
+        <v>13.22000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E53" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F53" t="n">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="G53" t="n">
-        <v>13.23833333333334</v>
+        <v>13.23000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E54" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F54" t="n">
-        <v>11108</v>
+        <v>444</v>
       </c>
       <c r="G54" t="n">
-        <v>13.24500000000001</v>
+        <v>13.23833333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,28 +2288,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E55" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F55" t="n">
-        <v>22342.8623</v>
+        <v>11108</v>
       </c>
       <c r="G55" t="n">
-        <v>13.25166666666667</v>
+        <v>13.24500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E56" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F56" t="n">
-        <v>31456.25</v>
+        <v>22342.8623</v>
       </c>
       <c r="G56" t="n">
-        <v>13.25666666666667</v>
+        <v>13.25166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>13.3</v>
       </c>
       <c r="F57" t="n">
-        <v>147.8391</v>
+        <v>31456.25</v>
       </c>
       <c r="G57" t="n">
-        <v>13.26333333333334</v>
+        <v>13.25666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="C58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E58" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F58" t="n">
-        <v>15437.7168</v>
+        <v>147.8391</v>
       </c>
       <c r="G58" t="n">
-        <v>13.27166666666667</v>
+        <v>13.26333333333334</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>13.5</v>
       </c>
       <c r="C59" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D59" t="n">
         <v>13.5</v>
       </c>
       <c r="E59" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F59" t="n">
-        <v>95201.3615</v>
+        <v>15437.7168</v>
       </c>
       <c r="G59" t="n">
-        <v>13.27833333333334</v>
+        <v>13.27166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C60" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D60" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E60" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F60" t="n">
-        <v>62045.1671</v>
+        <v>95201.3615</v>
       </c>
       <c r="G60" t="n">
-        <v>13.28166666666667</v>
+        <v>13.27833333333334</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C61" t="n">
         <v>13.3</v>
       </c>
       <c r="D61" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E61" t="n">
         <v>13.3</v>
       </c>
       <c r="F61" t="n">
-        <v>106719.1637</v>
+        <v>62045.1671</v>
       </c>
       <c r="G61" t="n">
-        <v>13.28666666666667</v>
+        <v>13.28166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F62" t="n">
-        <v>400265.5886</v>
+        <v>106719.1637</v>
       </c>
       <c r="G62" t="n">
-        <v>13.29</v>
+        <v>13.28666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="C63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="E63" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="F63" t="n">
-        <v>38</v>
+        <v>400265.5886</v>
       </c>
       <c r="G63" t="n">
-        <v>13.29833333333334</v>
+        <v>13.29</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>13.5</v>
       </c>
       <c r="F64" t="n">
-        <v>2782.5861</v>
+        <v>38</v>
       </c>
       <c r="G64" t="n">
-        <v>13.30333333333334</v>
+        <v>13.29833333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C65" t="n">
         <v>13.5</v>
       </c>
       <c r="D65" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E65" t="n">
         <v>13.5</v>
       </c>
       <c r="F65" t="n">
-        <v>27994.2543</v>
+        <v>2782.5861</v>
       </c>
       <c r="G65" t="n">
-        <v>13.30833333333334</v>
+        <v>13.30333333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D66" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E66" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F66" t="n">
-        <v>32587.4113</v>
+        <v>27994.2543</v>
       </c>
       <c r="G66" t="n">
-        <v>13.31166666666667</v>
+        <v>13.30833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>13.4</v>
       </c>
       <c r="F67" t="n">
-        <v>107.8661</v>
+        <v>32587.4113</v>
       </c>
       <c r="G67" t="n">
-        <v>13.31666666666667</v>
+        <v>13.31166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E68" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F68" t="n">
-        <v>18573.3732</v>
+        <v>107.8661</v>
       </c>
       <c r="G68" t="n">
-        <v>13.31833333333333</v>
+        <v>13.31666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>13.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10602.3448</v>
+        <v>18573.3732</v>
       </c>
       <c r="G69" t="n">
-        <v>13.32166666666666</v>
+        <v>13.31833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E70" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F70" t="n">
-        <v>97</v>
+        <v>10602.3448</v>
       </c>
       <c r="G70" t="n">
-        <v>13.32833333333333</v>
+        <v>13.32166666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>13.4</v>
       </c>
       <c r="C71" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D71" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E71" t="n">
         <v>13.4</v>
       </c>
       <c r="F71" t="n">
-        <v>149284.0491</v>
+        <v>97</v>
       </c>
       <c r="G71" t="n">
-        <v>13.33833333333333</v>
+        <v>13.32833333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C72" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D72" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E72" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F72" t="n">
-        <v>132004.4748</v>
+        <v>149284.0491</v>
       </c>
       <c r="G72" t="n">
-        <v>13.35</v>
+        <v>13.33833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>13.5</v>
       </c>
       <c r="C73" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D73" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E73" t="n">
         <v>13.5</v>
       </c>
       <c r="F73" t="n">
-        <v>851.1987</v>
+        <v>132004.4748</v>
       </c>
       <c r="G73" t="n">
-        <v>13.36</v>
+        <v>13.35</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E74" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>851.1987</v>
       </c>
       <c r="G74" t="n">
-        <v>13.37</v>
+        <v>13.36</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="E75" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F75" t="n">
-        <v>28367</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>13.375</v>
+        <v>13.37</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>13.4</v>
       </c>
       <c r="F76" t="n">
-        <v>1514.1515</v>
+        <v>28367</v>
       </c>
       <c r="G76" t="n">
-        <v>13.37833333333333</v>
+        <v>13.375</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>13.4</v>
       </c>
       <c r="F77" t="n">
-        <v>5147.4464</v>
+        <v>1514.1515</v>
       </c>
       <c r="G77" t="n">
-        <v>13.38333333333333</v>
+        <v>13.37833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E78" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>5147.4464</v>
       </c>
       <c r="G78" t="n">
-        <v>13.39</v>
+        <v>13.38333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>13.6</v>
       </c>
       <c r="C79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D79" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="E79" t="n">
         <v>13.6</v>
       </c>
       <c r="F79" t="n">
-        <v>158321.2728</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>13.4</v>
+        <v>13.39</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3166,19 +3166,19 @@
         <v>13.6</v>
       </c>
       <c r="C80" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D80" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="E80" t="n">
         <v>13.6</v>
       </c>
       <c r="F80" t="n">
-        <v>13932.429</v>
+        <v>158321.2728</v>
       </c>
       <c r="G80" t="n">
-        <v>13.40666666666666</v>
+        <v>13.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C81" t="n">
         <v>13.6</v>
@@ -3207,13 +3207,13 @@
         <v>13.6</v>
       </c>
       <c r="E81" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F81" t="n">
-        <v>893.4126</v>
+        <v>13932.429</v>
       </c>
       <c r="G81" t="n">
-        <v>13.41166666666666</v>
+        <v>13.40666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="C82" t="n">
         <v>13.6</v>
-      </c>
-      <c r="C82" t="n">
-        <v>13.5</v>
       </c>
       <c r="D82" t="n">
         <v>13.6</v>
@@ -3245,10 +3245,10 @@
         <v>13.5</v>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>893.4126</v>
       </c>
       <c r="G82" t="n">
-        <v>13.415</v>
+        <v>13.41166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>13.6</v>
       </c>
       <c r="C83" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D83" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E83" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F83" t="n">
-        <v>1973</v>
+        <v>100000</v>
       </c>
       <c r="G83" t="n">
-        <v>13.42</v>
+        <v>13.415</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C84" t="n">
         <v>13.7</v>
@@ -3312,13 +3312,13 @@
         <v>13.7</v>
       </c>
       <c r="E84" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F84" t="n">
-        <v>123693.7298</v>
+        <v>1973</v>
       </c>
       <c r="G84" t="n">
-        <v>13.425</v>
+        <v>13.42</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E85" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F85" t="n">
-        <v>181.5703</v>
+        <v>123693.7298</v>
       </c>
       <c r="G85" t="n">
-        <v>13.42833333333333</v>
+        <v>13.425</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>13.6</v>
       </c>
       <c r="F86" t="n">
-        <v>7334.6046</v>
+        <v>181.5703</v>
       </c>
       <c r="G86" t="n">
-        <v>13.43166666666667</v>
+        <v>13.42833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>13.6</v>
       </c>
       <c r="F87" t="n">
-        <v>1734.264</v>
+        <v>7334.6046</v>
       </c>
       <c r="G87" t="n">
-        <v>13.435</v>
+        <v>13.43166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>13.6</v>
       </c>
       <c r="C88" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D88" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E88" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F88" t="n">
-        <v>175871.662</v>
+        <v>1734.264</v>
       </c>
       <c r="G88" t="n">
-        <v>13.43833333333333</v>
+        <v>13.435</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C89" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D89" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E89" t="n">
         <v>13.5</v>
       </c>
       <c r="F89" t="n">
-        <v>108952.6309</v>
+        <v>175871.662</v>
       </c>
       <c r="G89" t="n">
         <v>13.43833333333333</v>
@@ -3516,16 +3516,16 @@
         <v>13.5</v>
       </c>
       <c r="C90" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D90" t="n">
         <v>13.5</v>
       </c>
       <c r="E90" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F90" t="n">
-        <v>331783.999</v>
+        <v>108952.6309</v>
       </c>
       <c r="G90" t="n">
         <v>13.43833333333333</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="C91" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D91" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E91" t="n">
         <v>13.3</v>
       </c>
       <c r="F91" t="n">
-        <v>11136.4043</v>
+        <v>331783.999</v>
       </c>
       <c r="G91" t="n">
-        <v>13.43666666666667</v>
+        <v>13.43833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>13.3</v>
       </c>
       <c r="F92" t="n">
-        <v>182.594</v>
+        <v>11136.4043</v>
       </c>
       <c r="G92" t="n">
-        <v>13.43833333333333</v>
+        <v>13.43666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>13.3</v>
       </c>
       <c r="F93" t="n">
-        <v>55000.949</v>
+        <v>182.594</v>
       </c>
       <c r="G93" t="n">
-        <v>13.435</v>
+        <v>13.43833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,19 +3653,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E94" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F94" t="n">
-        <v>14925.3731</v>
+        <v>55000.949</v>
       </c>
       <c r="G94" t="n">
         <v>13.435</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E95" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F95" t="n">
-        <v>38</v>
+        <v>14925.3731</v>
       </c>
       <c r="G95" t="n">
-        <v>13.44</v>
+        <v>13.435</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>13.5</v>
       </c>
       <c r="F96" t="n">
-        <v>29162</v>
+        <v>38</v>
       </c>
       <c r="G96" t="n">
-        <v>13.44333333333333</v>
+        <v>13.44</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E97" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F97" t="n">
-        <v>38</v>
+        <v>29162</v>
       </c>
       <c r="G97" t="n">
-        <v>13.445</v>
+        <v>13.44333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>13.6</v>
       </c>
       <c r="C98" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D98" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E98" t="n">
         <v>13.6</v>
       </c>
       <c r="F98" t="n">
-        <v>2741</v>
+        <v>38</v>
       </c>
       <c r="G98" t="n">
-        <v>13.45</v>
+        <v>13.445</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C99" t="n">
         <v>13.7</v>
       </c>
-      <c r="C99" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E99" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F99" t="n">
-        <v>110896.1824434783</v>
+        <v>2741</v>
       </c>
       <c r="G99" t="n">
-        <v>13.45666666666667</v>
+        <v>13.45</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>13.7</v>
       </c>
       <c r="C100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E100" t="n">
         <v>13.7</v>
       </c>
       <c r="F100" t="n">
-        <v>16307.0878</v>
+        <v>110896.1824434783</v>
       </c>
       <c r="G100" t="n">
-        <v>13.46166666666667</v>
+        <v>13.45666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>13.7</v>
       </c>
       <c r="F101" t="n">
-        <v>43789.8618</v>
+        <v>16307.0878</v>
       </c>
       <c r="G101" t="n">
-        <v>13.465</v>
+        <v>13.46166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>13.7</v>
       </c>
       <c r="F102" t="n">
-        <v>51761.297</v>
+        <v>43789.8618</v>
       </c>
       <c r="G102" t="n">
-        <v>13.46833333333334</v>
+        <v>13.465</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>13.7</v>
       </c>
       <c r="F103" t="n">
-        <v>113553.592</v>
+        <v>51761.297</v>
       </c>
       <c r="G103" t="n">
-        <v>13.47166666666667</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>13.7</v>
       </c>
       <c r="F104" t="n">
-        <v>278778.4351</v>
+        <v>113553.592</v>
       </c>
       <c r="G104" t="n">
-        <v>13.47666666666667</v>
+        <v>13.47166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>13.7</v>
       </c>
       <c r="F105" t="n">
-        <v>42706.5727</v>
+        <v>278778.4351</v>
       </c>
       <c r="G105" t="n">
-        <v>13.485</v>
+        <v>13.47666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="E106" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F106" t="n">
-        <v>30000</v>
+        <v>42706.5727</v>
       </c>
       <c r="G106" t="n">
-        <v>13.48833333333334</v>
+        <v>13.485</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,25 +4111,25 @@
         <v>13.6</v>
       </c>
       <c r="C107" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D107" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E107" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F107" t="n">
-        <v>250718.038</v>
+        <v>30000</v>
       </c>
       <c r="G107" t="n">
-        <v>13.49500000000001</v>
+        <v>13.48833333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C108" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D108" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E108" t="n">
         <v>13.5</v>
       </c>
       <c r="F108" t="n">
-        <v>43789.8618</v>
+        <v>250718.038</v>
       </c>
       <c r="G108" t="n">
-        <v>13.49833333333334</v>
+        <v>13.49500000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="C109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="D109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="E109" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="F109" t="n">
-        <v>1053.1386</v>
+        <v>43789.8618</v>
       </c>
       <c r="G109" t="n">
-        <v>13.50666666666667</v>
+        <v>13.49833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="C110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E110" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>1053.1386</v>
       </c>
       <c r="G110" t="n">
-        <v>13.50833333333334</v>
+        <v>13.50666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>13.5</v>
       </c>
       <c r="F111" t="n">
-        <v>16049.9074</v>
+        <v>100</v>
       </c>
       <c r="G111" t="n">
-        <v>13.51000000000001</v>
+        <v>13.50833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E112" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F112" t="n">
-        <v>91109.6153</v>
+        <v>16049.9074</v>
       </c>
       <c r="G112" t="n">
-        <v>13.50833333333334</v>
+        <v>13.51000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E113" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F113" t="n">
-        <v>60</v>
+        <v>91109.6153</v>
       </c>
       <c r="G113" t="n">
-        <v>13.51166666666668</v>
+        <v>13.50833333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>13.6</v>
       </c>
       <c r="F114" t="n">
-        <v>645.4591</v>
+        <v>60</v>
       </c>
       <c r="G114" t="n">
-        <v>13.51666666666668</v>
+        <v>13.51166666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,19 +4388,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C115" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="D115" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E115" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F115" t="n">
-        <v>844956.3159</v>
+        <v>645.4591</v>
       </c>
       <c r="G115" t="n">
         <v>13.51666666666668</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C116" t="n">
         <v>13.4</v>
       </c>
       <c r="D116" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E116" t="n">
         <v>13.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4539</v>
+        <v>844956.3159</v>
       </c>
       <c r="G116" t="n">
-        <v>13.51833333333334</v>
+        <v>13.51666666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E117" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F117" t="n">
-        <v>36.7648</v>
+        <v>4539</v>
       </c>
       <c r="G117" t="n">
-        <v>13.52333333333334</v>
+        <v>13.51833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,19 +4493,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E118" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F118" t="n">
-        <v>30000</v>
+        <v>36.7648</v>
       </c>
       <c r="G118" t="n">
         <v>13.52333333333334</v>
@@ -4540,10 +4540,10 @@
         <v>13.5</v>
       </c>
       <c r="F119" t="n">
-        <v>1043.0003</v>
+        <v>30000</v>
       </c>
       <c r="G119" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E120" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F120" t="n">
-        <v>37.3135</v>
+        <v>1043.0003</v>
       </c>
       <c r="G120" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,19 +4598,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E121" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F121" t="n">
-        <v>34060.4009</v>
+        <v>37.3135</v>
       </c>
       <c r="G121" t="n">
         <v>13.52666666666668</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E122" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F122" t="n">
-        <v>38</v>
+        <v>34060.4009</v>
       </c>
       <c r="G122" t="n">
-        <v>13.53000000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>13.4</v>
       </c>
       <c r="F123" t="n">
-        <v>15970.7789</v>
+        <v>38</v>
       </c>
       <c r="G123" t="n">
-        <v>13.52833333333334</v>
+        <v>13.53000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4715,10 @@
         <v>13.4</v>
       </c>
       <c r="F124" t="n">
-        <v>15528.9834</v>
+        <v>15970.7789</v>
       </c>
       <c r="G124" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>13.4</v>
       </c>
       <c r="F125" t="n">
-        <v>38.3652</v>
+        <v>15528.9834</v>
       </c>
       <c r="G125" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>13.4</v>
       </c>
       <c r="F126" t="n">
-        <v>13450.7518</v>
+        <v>38.3652</v>
       </c>
       <c r="G126" t="n">
         <v>13.52500000000001</v>
@@ -4820,7 +4820,7 @@
         <v>13.4</v>
       </c>
       <c r="F127" t="n">
-        <v>2592.4016</v>
+        <v>13450.7518</v>
       </c>
       <c r="G127" t="n">
         <v>13.52500000000001</v>
@@ -4855,10 +4855,10 @@
         <v>13.4</v>
       </c>
       <c r="F128" t="n">
-        <v>107407.5984</v>
+        <v>2592.4016</v>
       </c>
       <c r="G128" t="n">
-        <v>13.52666666666668</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,16 +4881,16 @@
         <v>13.4</v>
       </c>
       <c r="C129" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D129" t="n">
         <v>13.4</v>
       </c>
       <c r="E129" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F129" t="n">
-        <v>10000</v>
+        <v>107407.5984</v>
       </c>
       <c r="G129" t="n">
         <v>13.52666666666668</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C130" t="n">
         <v>13.3</v>
       </c>
       <c r="D130" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E130" t="n">
         <v>13.3</v>
       </c>
       <c r="F130" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G130" t="n">
-        <v>13.52500000000001</v>
+        <v>13.52666666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>13.3</v>
       </c>
       <c r="C131" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D131" t="n">
         <v>13.3</v>
       </c>
       <c r="E131" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F131" t="n">
-        <v>93238.67080000001</v>
+        <v>90000</v>
       </c>
       <c r="G131" t="n">
-        <v>13.52000000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C132" t="n">
         <v>13.2</v>
       </c>
       <c r="D132" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E132" t="n">
         <v>13.2</v>
       </c>
       <c r="F132" t="n">
-        <v>178.03</v>
+        <v>93238.67080000001</v>
       </c>
       <c r="G132" t="n">
-        <v>13.51333333333334</v>
+        <v>13.52000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>13.2</v>
       </c>
       <c r="F133" t="n">
-        <v>225.65</v>
+        <v>178.03</v>
       </c>
       <c r="G133" t="n">
-        <v>13.50833333333335</v>
+        <v>13.51333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>13.2</v>
       </c>
       <c r="F134" t="n">
-        <v>403.68</v>
+        <v>225.65</v>
       </c>
       <c r="G134" t="n">
-        <v>13.50166666666668</v>
+        <v>13.50833333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>13.2</v>
       </c>
       <c r="F135" t="n">
-        <v>90765.9391</v>
+        <v>403.68</v>
       </c>
       <c r="G135" t="n">
-        <v>13.49833333333335</v>
+        <v>13.50166666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5126,19 @@
         <v>13.2</v>
       </c>
       <c r="C136" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D136" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E136" t="n">
         <v>13.2</v>
       </c>
       <c r="F136" t="n">
-        <v>13310.5143</v>
+        <v>90765.9391</v>
       </c>
       <c r="G136" t="n">
-        <v>13.49666666666668</v>
+        <v>13.49833333333335</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D137" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E137" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F137" t="n">
-        <v>9174.790000000001</v>
+        <v>13310.5143</v>
       </c>
       <c r="G137" t="n">
-        <v>13.49166666666668</v>
+        <v>13.49666666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>13.1</v>
       </c>
       <c r="F138" t="n">
-        <v>417966.5045</v>
+        <v>9174.790000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>13.48333333333335</v>
+        <v>13.49166666666668</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5240,10 @@
         <v>13.1</v>
       </c>
       <c r="F139" t="n">
-        <v>46733.9056</v>
+        <v>417966.5045</v>
       </c>
       <c r="G139" t="n">
-        <v>13.47166666666668</v>
+        <v>13.48333333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5275,10 @@
         <v>13.1</v>
       </c>
       <c r="F140" t="n">
-        <v>47680.0403</v>
+        <v>46733.9056</v>
       </c>
       <c r="G140" t="n">
-        <v>13.46333333333335</v>
+        <v>13.47166666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>13.1</v>
       </c>
       <c r="F141" t="n">
-        <v>13490</v>
+        <v>47680.0403</v>
       </c>
       <c r="G141" t="n">
-        <v>13.45500000000001</v>
+        <v>13.46333333333335</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>13.1</v>
       </c>
       <c r="F142" t="n">
-        <v>2217.483</v>
+        <v>13490</v>
       </c>
       <c r="G142" t="n">
-        <v>13.44833333333335</v>
+        <v>13.45500000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E143" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F143" t="n">
-        <v>63399.977</v>
+        <v>2217.483</v>
       </c>
       <c r="G143" t="n">
-        <v>13.43666666666668</v>
+        <v>13.44833333333335</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,35 +5403,31 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E144" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F144" t="n">
-        <v>1368.2347</v>
+        <v>63399.977</v>
       </c>
       <c r="G144" t="n">
-        <v>13.42666666666668</v>
+        <v>13.43666666666668</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>13</v>
-      </c>
-      <c r="K144" t="n">
-        <v>13</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
@@ -5445,37 +5441,29 @@
         <v>13.1</v>
       </c>
       <c r="C145" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D145" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E145" t="n">
         <v>13.1</v>
       </c>
       <c r="F145" t="n">
-        <v>124098.409</v>
+        <v>1368.2347</v>
       </c>
       <c r="G145" t="n">
-        <v>13.42000000000001</v>
+        <v>13.42666666666668</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K145" t="n">
-        <v>13</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,40 +5473,32 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C146" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D146" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="E146" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F146" t="n">
-        <v>6171.2593</v>
+        <v>124098.409</v>
       </c>
       <c r="G146" t="n">
-        <v>13.41666666666668</v>
+        <v>13.42000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K146" t="n">
-        <v>13</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5528,40 +5508,32 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D147" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E147" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F147" t="n">
-        <v>64744.4701</v>
+        <v>6171.2593</v>
       </c>
       <c r="G147" t="n">
-        <v>13.41500000000001</v>
+        <v>13.41666666666668</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>13</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5571,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C148" t="n">
         <v>13.5</v>
@@ -5580,31 +5552,23 @@
         <v>13.5</v>
       </c>
       <c r="E148" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F148" t="n">
-        <v>1710.7264</v>
+        <v>64744.4701</v>
       </c>
       <c r="G148" t="n">
-        <v>13.41166666666668</v>
+        <v>13.41500000000001</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="K148" t="n">
-        <v>13</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5626,7 +5590,7 @@
         <v>13.5</v>
       </c>
       <c r="F149" t="n">
-        <v>160.6982</v>
+        <v>1710.7264</v>
       </c>
       <c r="G149" t="n">
         <v>13.41166666666668</v>
@@ -5638,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>13</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5667,10 +5625,10 @@
         <v>13.5</v>
       </c>
       <c r="F150" t="n">
-        <v>8021.6621</v>
+        <v>160.6982</v>
       </c>
       <c r="G150" t="n">
-        <v>13.41333333333335</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5679,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>13</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5696,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E151" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F151" t="n">
-        <v>37.3135</v>
+        <v>8021.6621</v>
       </c>
       <c r="G151" t="n">
-        <v>13.41500000000001</v>
+        <v>13.41333333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5720,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>13</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5737,19 +5683,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E152" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F152" t="n">
-        <v>38837.594</v>
+        <v>37.3135</v>
       </c>
       <c r="G152" t="n">
         <v>13.41500000000001</v>
@@ -5761,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>13</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +5730,7 @@
         <v>13.3</v>
       </c>
       <c r="F153" t="n">
-        <v>150801.8373</v>
+        <v>38837.594</v>
       </c>
       <c r="G153" t="n">
         <v>13.41500000000001</v>
@@ -5802,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>13</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5819,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E154" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F154" t="n">
-        <v>40.3955</v>
+        <v>150801.8373</v>
       </c>
       <c r="G154" t="n">
-        <v>13.41166666666668</v>
+        <v>13.41500000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5843,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>13</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5860,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E155" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F155" t="n">
-        <v>37.594</v>
+        <v>40.3955</v>
       </c>
       <c r="G155" t="n">
-        <v>13.40833333333335</v>
+        <v>13.41166666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5884,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>13</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5901,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E156" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F156" t="n">
-        <v>6836.5615</v>
+        <v>37.594</v>
       </c>
       <c r="G156" t="n">
-        <v>13.40333333333335</v>
+        <v>13.40833333333335</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5925,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>13</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5942,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E157" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F157" t="n">
-        <v>789.4736992481203</v>
+        <v>6836.5615</v>
       </c>
       <c r="G157" t="n">
-        <v>13.39833333333335</v>
+        <v>13.40333333333335</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5966,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>13</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5983,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E158" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F158" t="n">
-        <v>38</v>
+        <v>789.4736992481203</v>
       </c>
       <c r="G158" t="n">
-        <v>13.39333333333335</v>
+        <v>13.39833333333335</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6007,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>13</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6024,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C159" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D159" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E159" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F159" t="n">
-        <v>20000</v>
+        <v>38</v>
       </c>
       <c r="G159" t="n">
-        <v>13.38833333333335</v>
+        <v>13.39333333333335</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6048,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>13</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6068,19 +5966,19 @@
         <v>13.3</v>
       </c>
       <c r="C160" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="D160" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="E160" t="n">
         <v>13.3</v>
       </c>
       <c r="F160" t="n">
-        <v>44354.9714</v>
+        <v>20000</v>
       </c>
       <c r="G160" t="n">
-        <v>13.38166666666668</v>
+        <v>13.38833333333335</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6089,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>13</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6106,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="C161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E161" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F161" t="n">
-        <v>37.3135</v>
+        <v>44354.9714</v>
       </c>
       <c r="G161" t="n">
-        <v>13.37666666666668</v>
+        <v>13.38166666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6130,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>13</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6147,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="C162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E162" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="F162" t="n">
-        <v>21165.8727</v>
+        <v>37.3135</v>
       </c>
       <c r="G162" t="n">
-        <v>13.37000000000001</v>
+        <v>13.37666666666668</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6171,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>13</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6188,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E163" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F163" t="n">
-        <v>35341.5653</v>
+        <v>21165.8727</v>
       </c>
       <c r="G163" t="n">
-        <v>13.36166666666668</v>
+        <v>13.37000000000001</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6212,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>13</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6241,10 +6115,10 @@
         <v>13.2</v>
       </c>
       <c r="F164" t="n">
-        <v>11000</v>
+        <v>35341.5653</v>
       </c>
       <c r="G164" t="n">
-        <v>13.35333333333334</v>
+        <v>13.36166666666668</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6253,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>13</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6282,10 +6150,10 @@
         <v>13.2</v>
       </c>
       <c r="F165" t="n">
-        <v>876</v>
+        <v>11000</v>
       </c>
       <c r="G165" t="n">
-        <v>13.34500000000001</v>
+        <v>13.35333333333334</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6294,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>13</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6311,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C166" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D166" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E166" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F166" t="n">
-        <v>49875</v>
+        <v>876</v>
       </c>
       <c r="G166" t="n">
-        <v>13.33500000000001</v>
+        <v>13.34500000000001</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6335,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>13</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6352,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C167" t="n">
         <v>13</v>
       </c>
       <c r="D167" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
       </c>
       <c r="F167" t="n">
-        <v>46217.6883</v>
+        <v>49875</v>
       </c>
       <c r="G167" t="n">
-        <v>13.32333333333334</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6376,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>13</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6393,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E168" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F168" t="n">
-        <v>7430.4677</v>
+        <v>46217.6883</v>
       </c>
       <c r="G168" t="n">
-        <v>13.31833333333334</v>
+        <v>13.32333333333334</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6417,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>13</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6446,10 +6290,10 @@
         <v>13.2</v>
       </c>
       <c r="F169" t="n">
-        <v>11588.1497</v>
+        <v>7430.4677</v>
       </c>
       <c r="G169" t="n">
-        <v>13.31000000000001</v>
+        <v>13.31833333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6458,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>13</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6487,10 +6325,10 @@
         <v>13.2</v>
       </c>
       <c r="F170" t="n">
-        <v>21039.2976</v>
+        <v>11588.1497</v>
       </c>
       <c r="G170" t="n">
-        <v>13.30500000000001</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6499,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>13</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6528,10 +6360,10 @@
         <v>13.2</v>
       </c>
       <c r="F171" t="n">
-        <v>12409.9533</v>
+        <v>21039.2976</v>
       </c>
       <c r="G171" t="n">
-        <v>13.30000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6540,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>13</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6569,10 +6395,10 @@
         <v>13.2</v>
       </c>
       <c r="F172" t="n">
-        <v>16279.0127</v>
+        <v>12409.9533</v>
       </c>
       <c r="G172" t="n">
-        <v>13.29666666666668</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6581,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>13</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6610,10 +6430,10 @@
         <v>13.2</v>
       </c>
       <c r="F173" t="n">
-        <v>7556.8654</v>
+        <v>16279.0127</v>
       </c>
       <c r="G173" t="n">
-        <v>13.29000000000001</v>
+        <v>13.29666666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6622,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>13</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6651,10 +6465,10 @@
         <v>13.2</v>
       </c>
       <c r="F174" t="n">
-        <v>23581.8733</v>
+        <v>7556.8654</v>
       </c>
       <c r="G174" t="n">
-        <v>13.28333333333334</v>
+        <v>13.29000000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6663,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>13</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6680,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E175" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F175" t="n">
-        <v>26324.8695</v>
+        <v>23581.8733</v>
       </c>
       <c r="G175" t="n">
-        <v>13.27666666666668</v>
+        <v>13.28333333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6704,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>13</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6721,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D176" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
       </c>
       <c r="F176" t="n">
-        <v>68102.64659999999</v>
+        <v>26324.8695</v>
       </c>
       <c r="G176" t="n">
-        <v>13.27166666666668</v>
+        <v>13.27666666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6745,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>13</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6771,13 +6567,13 @@
         <v>13.1</v>
       </c>
       <c r="E177" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F177" t="n">
-        <v>8901.8552</v>
+        <v>68102.64659999999</v>
       </c>
       <c r="G177" t="n">
-        <v>13.26333333333335</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6786,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>13</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6815,10 +6605,10 @@
         <v>13.1</v>
       </c>
       <c r="F178" t="n">
-        <v>1526.717557251908</v>
+        <v>8901.8552</v>
       </c>
       <c r="G178" t="n">
-        <v>13.25666666666668</v>
+        <v>13.26333333333335</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6827,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>13</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6844,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C179" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D179" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E179" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F179" t="n">
-        <v>530546.3495</v>
+        <v>1526.717557251908</v>
       </c>
       <c r="G179" t="n">
-        <v>13.24500000000001</v>
+        <v>13.25666666666668</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6868,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>13</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6885,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C180" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D180" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E180" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F180" t="n">
-        <v>150000</v>
+        <v>530546.3495</v>
       </c>
       <c r="G180" t="n">
-        <v>13.23333333333335</v>
+        <v>13.24500000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6909,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>13</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6926,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C181" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D181" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E181" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F181" t="n">
-        <v>290</v>
+        <v>150000</v>
       </c>
       <c r="G181" t="n">
-        <v>13.22500000000001</v>
+        <v>13.23333333333335</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6950,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>13</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6967,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C182" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D182" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E182" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F182" t="n">
-        <v>65263.2353</v>
+        <v>290</v>
       </c>
       <c r="G182" t="n">
-        <v>13.21333333333335</v>
+        <v>13.22500000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6991,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>13</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7011,19 +6771,19 @@
         <v>12.9</v>
       </c>
       <c r="C183" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D183" t="n">
         <v>12.9</v>
       </c>
       <c r="E183" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F183" t="n">
-        <v>3491.2284</v>
+        <v>65263.2353</v>
       </c>
       <c r="G183" t="n">
-        <v>13.20333333333335</v>
+        <v>13.21333333333335</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7032,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>13</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7052,19 +6806,19 @@
         <v>12.9</v>
       </c>
       <c r="C184" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D184" t="n">
         <v>12.9</v>
       </c>
       <c r="E184" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F184" t="n">
-        <v>3570.5361</v>
+        <v>3491.2284</v>
       </c>
       <c r="G184" t="n">
-        <v>13.19166666666668</v>
+        <v>13.20333333333335</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7073,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>13</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7090,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C185" t="n">
         <v>12.7</v>
       </c>
       <c r="D185" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E185" t="n">
         <v>12.7</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>3570.5361</v>
       </c>
       <c r="G185" t="n">
-        <v>13.18000000000002</v>
+        <v>13.19166666666668</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7114,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>13</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7131,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E186" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F186" t="n">
-        <v>7383.831</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>13.17000000000002</v>
+        <v>13.18000000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7155,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>13</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7172,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E187" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F187" t="n">
-        <v>38.7597</v>
+        <v>7383.831</v>
       </c>
       <c r="G187" t="n">
-        <v>13.16166666666668</v>
+        <v>13.17000000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7196,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>13</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7225,10 +6955,10 @@
         <v>12.9</v>
       </c>
       <c r="F188" t="n">
-        <v>1091.4728</v>
+        <v>38.7597</v>
       </c>
       <c r="G188" t="n">
-        <v>13.15333333333335</v>
+        <v>13.16166666666668</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7237,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>13</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7266,10 +6990,10 @@
         <v>12.9</v>
       </c>
       <c r="F189" t="n">
-        <v>334</v>
+        <v>1091.4728</v>
       </c>
       <c r="G189" t="n">
-        <v>13.14666666666668</v>
+        <v>13.15333333333335</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7278,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>13</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7295,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E190" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F190" t="n">
-        <v>1355.8951</v>
+        <v>334</v>
       </c>
       <c r="G190" t="n">
-        <v>13.13833333333335</v>
+        <v>13.14666666666668</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7319,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>13</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7336,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E191" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F191" t="n">
-        <v>123</v>
+        <v>1355.8951</v>
       </c>
       <c r="G191" t="n">
-        <v>13.13333333333335</v>
+        <v>13.13833333333335</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7360,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>13</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7389,10 +7095,10 @@
         <v>12.9</v>
       </c>
       <c r="F192" t="n">
-        <v>843</v>
+        <v>123</v>
       </c>
       <c r="G192" t="n">
-        <v>13.12833333333335</v>
+        <v>13.13333333333335</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7401,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>13</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7430,28 +7130,20 @@
         <v>12.9</v>
       </c>
       <c r="F193" t="n">
-        <v>2000</v>
+        <v>843</v>
       </c>
       <c r="G193" t="n">
-        <v>13.12333333333335</v>
+        <v>13.12833333333335</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K193" t="n">
-        <v>13</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7464,19 +7156,19 @@
         <v>12.9</v>
       </c>
       <c r="C194" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D194" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E194" t="n">
         <v>12.9</v>
       </c>
       <c r="F194" t="n">
-        <v>15039.4728</v>
+        <v>2000</v>
       </c>
       <c r="G194" t="n">
-        <v>13.12000000000001</v>
+        <v>13.12333333333335</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7485,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>13</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7505,19 +7191,19 @@
         <v>12.9</v>
       </c>
       <c r="C195" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D195" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E195" t="n">
         <v>12.9</v>
       </c>
       <c r="F195" t="n">
-        <v>7732.6056</v>
+        <v>15039.4728</v>
       </c>
       <c r="G195" t="n">
-        <v>13.11500000000001</v>
+        <v>13.12000000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7526,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>13</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7555,10 +7235,10 @@
         <v>12.9</v>
       </c>
       <c r="F196" t="n">
-        <v>41641.684</v>
+        <v>7732.6056</v>
       </c>
       <c r="G196" t="n">
-        <v>13.10833333333334</v>
+        <v>13.11500000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7567,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>13</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7584,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E197" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F197" t="n">
-        <v>1642.9203</v>
+        <v>41641.684</v>
       </c>
       <c r="G197" t="n">
-        <v>13.10666666666668</v>
+        <v>13.10833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7608,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>13</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7625,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E198" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F198" t="n">
-        <v>34584.6965</v>
+        <v>1642.9203</v>
       </c>
       <c r="G198" t="n">
-        <v>13.10333333333334</v>
+        <v>13.10666666666668</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7649,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>13</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7678,10 +7340,10 @@
         <v>12.9</v>
       </c>
       <c r="F199" t="n">
-        <v>19800.4159</v>
+        <v>34584.6965</v>
       </c>
       <c r="G199" t="n">
-        <v>13.10000000000001</v>
+        <v>13.10333333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7690,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>13</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7707,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E200" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F200" t="n">
-        <v>1314</v>
+        <v>19800.4159</v>
       </c>
       <c r="G200" t="n">
-        <v>13.09833333333334</v>
+        <v>13.10000000000001</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7731,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>13</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7760,10 +7410,10 @@
         <v>13</v>
       </c>
       <c r="F201" t="n">
-        <v>473351.4812</v>
+        <v>1314</v>
       </c>
       <c r="G201" t="n">
-        <v>13.09666666666667</v>
+        <v>13.09833333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7772,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>13</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7789,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E202" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F202" t="n">
-        <v>134260.6841</v>
+        <v>473351.4812</v>
       </c>
       <c r="G202" t="n">
-        <v>13.09333333333334</v>
+        <v>13.09666666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7813,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>13</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7830,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C203" t="n">
         <v>12.9</v>
       </c>
       <c r="D203" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E203" t="n">
         <v>12.9</v>
       </c>
       <c r="F203" t="n">
-        <v>91106.5785</v>
+        <v>134260.6841</v>
       </c>
       <c r="G203" t="n">
-        <v>13.09166666666667</v>
+        <v>13.09333333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7854,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>13</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7874,19 +7506,19 @@
         <v>13</v>
       </c>
       <c r="C204" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D204" t="n">
         <v>13</v>
       </c>
       <c r="E204" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F204" t="n">
-        <v>39</v>
+        <v>91106.5785</v>
       </c>
       <c r="G204" t="n">
-        <v>13.09000000000001</v>
+        <v>13.09166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7895,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>13</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7912,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F205" t="n">
-        <v>138908.5552</v>
+        <v>39</v>
       </c>
       <c r="G205" t="n">
-        <v>13.08500000000001</v>
+        <v>13.09000000000001</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7936,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>13</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7953,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E206" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F206" t="n">
-        <v>69180</v>
+        <v>138908.5552</v>
       </c>
       <c r="G206" t="n">
-        <v>13.07833333333334</v>
+        <v>13.08500000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7977,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>13</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8006,10 +7620,10 @@
         <v>13</v>
       </c>
       <c r="F207" t="n">
-        <v>4000</v>
+        <v>69180</v>
       </c>
       <c r="G207" t="n">
-        <v>13.07000000000001</v>
+        <v>13.07833333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8018,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>13</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8047,10 +7655,10 @@
         <v>13</v>
       </c>
       <c r="F208" t="n">
-        <v>95</v>
+        <v>4000</v>
       </c>
       <c r="G208" t="n">
-        <v>13.06166666666667</v>
+        <v>13.07000000000001</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8059,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>13</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8076,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E209" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F209" t="n">
-        <v>131528.5681</v>
+        <v>95</v>
       </c>
       <c r="G209" t="n">
-        <v>13.05000000000001</v>
+        <v>13.06166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8100,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>13</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8117,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E210" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F210" t="n">
-        <v>39</v>
+        <v>131528.5681</v>
       </c>
       <c r="G210" t="n">
-        <v>13.04</v>
+        <v>13.05000000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8141,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>13</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8158,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E211" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F211" t="n">
-        <v>39.0625</v>
+        <v>39</v>
       </c>
       <c r="G211" t="n">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8182,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>13</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8202,19 +7786,19 @@
         <v>12.8</v>
       </c>
       <c r="C212" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D212" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E212" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F212" t="n">
-        <v>223510.0642</v>
+        <v>39.0625</v>
       </c>
       <c r="G212" t="n">
-        <v>13.02000000000001</v>
+        <v>13.03</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8223,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>13</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8240,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C213" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D213" t="n">
         <v>12.9</v>
       </c>
       <c r="E213" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="F213" t="n">
-        <v>4360.6102</v>
+        <v>223510.0642</v>
       </c>
       <c r="G213" t="n">
-        <v>13.01333333333334</v>
+        <v>13.02000000000001</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8264,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>13</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8281,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C214" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D214" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F214" t="n">
-        <v>213</v>
+        <v>4360.6102</v>
       </c>
       <c r="G214" t="n">
-        <v>13.01166666666667</v>
+        <v>13.01333333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8305,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>13</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8325,19 +7891,19 @@
         <v>13</v>
       </c>
       <c r="C215" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D215" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
       </c>
       <c r="F215" t="n">
-        <v>38365.6251</v>
+        <v>213</v>
       </c>
       <c r="G215" t="n">
-        <v>13.00666666666667</v>
+        <v>13.01166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8346,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>13</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8375,10 +7935,10 @@
         <v>13</v>
       </c>
       <c r="F216" t="n">
-        <v>1739.766638461538</v>
+        <v>38365.6251</v>
       </c>
       <c r="G216" t="n">
-        <v>13.00333333333334</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8387,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>13</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8404,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E217" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F217" t="n">
-        <v>91.0802</v>
+        <v>1739.766638461538</v>
       </c>
       <c r="G217" t="n">
-        <v>12.99666666666667</v>
+        <v>13.00333333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8428,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>13</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8457,10 +8005,10 @@
         <v>12.9</v>
       </c>
       <c r="F218" t="n">
-        <v>23902.7963</v>
+        <v>91.0802</v>
       </c>
       <c r="G218" t="n">
-        <v>12.98833333333334</v>
+        <v>12.99666666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8469,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>13</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8498,10 +8040,10 @@
         <v>12.9</v>
       </c>
       <c r="F219" t="n">
-        <v>30354.8344</v>
+        <v>23902.7963</v>
       </c>
       <c r="G219" t="n">
-        <v>12.97833333333334</v>
+        <v>12.98833333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8510,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>13</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8527,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C220" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E220" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F220" t="n">
-        <v>128911.8383</v>
+        <v>30354.8344</v>
       </c>
       <c r="G220" t="n">
-        <v>12.97000000000001</v>
+        <v>12.97833333333334</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8551,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>13</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8568,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C221" t="n">
         <v>12.8</v>
       </c>
       <c r="D221" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
         <v>12.8</v>
       </c>
       <c r="F221" t="n">
-        <v>10572.6314</v>
+        <v>128911.8383</v>
       </c>
       <c r="G221" t="n">
-        <v>12.96000000000001</v>
+        <v>12.97000000000001</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8592,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>13</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8609,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E222" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F222" t="n">
-        <v>775.1937984496124</v>
+        <v>10572.6314</v>
       </c>
       <c r="G222" t="n">
-        <v>12.95333333333334</v>
+        <v>12.96000000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8633,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>13</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8650,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E223" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F223" t="n">
-        <v>804.0667</v>
+        <v>775.1937984496124</v>
       </c>
       <c r="G223" t="n">
-        <v>12.95000000000001</v>
+        <v>12.95333333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8674,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>13</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8703,10 +8215,10 @@
         <v>13</v>
       </c>
       <c r="F224" t="n">
-        <v>131</v>
+        <v>804.0667</v>
       </c>
       <c r="G224" t="n">
-        <v>12.94666666666667</v>
+        <v>12.95000000000001</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8715,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>13</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8738,16 +8244,16 @@
         <v>13</v>
       </c>
       <c r="D225" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
       </c>
       <c r="F225" t="n">
-        <v>70713.88499999999</v>
+        <v>131</v>
       </c>
       <c r="G225" t="n">
-        <v>12.94333333333334</v>
+        <v>12.94666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8756,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>13</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8779,13 +8279,13 @@
         <v>13</v>
       </c>
       <c r="D226" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
       </c>
       <c r="F226" t="n">
-        <v>99778.65399999999</v>
+        <v>70713.88499999999</v>
       </c>
       <c r="G226" t="n">
         <v>12.94333333333334</v>
@@ -8797,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>13</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8814,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E227" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F227" t="n">
-        <v>41</v>
+        <v>99778.65399999999</v>
       </c>
       <c r="G227" t="n">
-        <v>12.945</v>
+        <v>12.94333333333334</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8838,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>13</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8855,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E228" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F228" t="n">
-        <v>38365.6251</v>
+        <v>41</v>
       </c>
       <c r="G228" t="n">
-        <v>12.94</v>
+        <v>12.945</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8879,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>13</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8896,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E229" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F229" t="n">
-        <v>159144.6402</v>
+        <v>38365.6251</v>
       </c>
       <c r="G229" t="n">
-        <v>12.93833333333334</v>
+        <v>12.94</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8920,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>13</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8949,10 +8425,10 @@
         <v>13.1</v>
       </c>
       <c r="F230" t="n">
-        <v>762362.1868</v>
+        <v>159144.6402</v>
       </c>
       <c r="G230" t="n">
-        <v>12.93666666666667</v>
+        <v>12.93833333333334</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8961,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>13</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8990,10 +8460,10 @@
         <v>13.1</v>
       </c>
       <c r="F231" t="n">
-        <v>158028.9411</v>
+        <v>762362.1868</v>
       </c>
       <c r="G231" t="n">
-        <v>12.935</v>
+        <v>12.93666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9002,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>13</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9031,10 +8495,10 @@
         <v>13.1</v>
       </c>
       <c r="F232" t="n">
-        <v>166.9054</v>
+        <v>158028.9411</v>
       </c>
       <c r="G232" t="n">
-        <v>12.93333333333334</v>
+        <v>12.935</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -9043,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>13</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9060,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C233" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D233" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E233" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F233" t="n">
-        <v>354961.7014</v>
+        <v>166.9054</v>
       </c>
       <c r="G233" t="n">
-        <v>12.935</v>
+        <v>12.93333333333334</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9084,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>13</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9101,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C234" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="D234" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="E234" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F234" t="n">
-        <v>109632.8711</v>
+        <v>354961.7014</v>
       </c>
       <c r="G234" t="n">
-        <v>12.93333333333333</v>
+        <v>12.935</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9125,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>13</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9142,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="C235" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="D235" t="n">
-        <v>14.1</v>
+        <v>13.1</v>
       </c>
       <c r="E235" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F235" t="n">
-        <v>1788592.2063</v>
+        <v>109632.8711</v>
       </c>
       <c r="G235" t="n">
-        <v>12.95</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9166,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>13</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9183,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="C236" t="n">
         <v>14</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E236" t="n">
-        <v>13.9</v>
+        <v>13.3</v>
       </c>
       <c r="F236" t="n">
-        <v>986425.4028</v>
+        <v>1788592.2063</v>
       </c>
       <c r="G236" t="n">
-        <v>12.965</v>
+        <v>12.95</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9207,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>13</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9227,7 +8661,7 @@
         <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D237" t="n">
         <v>14</v>
@@ -9236,10 +8670,10 @@
         <v>13.9</v>
       </c>
       <c r="F237" t="n">
-        <v>152954.6631</v>
+        <v>986425.4028</v>
       </c>
       <c r="G237" t="n">
-        <v>12.97833333333333</v>
+        <v>12.965</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9248,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>13</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9265,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>14</v>
+      </c>
+      <c r="C238" t="n">
         <v>13.9</v>
       </c>
-      <c r="C238" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D238" t="n">
+        <v>14</v>
+      </c>
+      <c r="E238" t="n">
         <v>13.9</v>
       </c>
-      <c r="E238" t="n">
-        <v>13.8</v>
-      </c>
       <c r="F238" t="n">
-        <v>387862</v>
+        <v>152954.6631</v>
       </c>
       <c r="G238" t="n">
-        <v>12.99</v>
+        <v>12.97833333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9289,16 +8717,10 @@
         <v>1</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>13</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
-        <v>1.056538461538462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -9306,28 +8728,28 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C239" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D239" t="n">
         <v>13.9</v>
       </c>
-      <c r="D239" t="n">
-        <v>14.4</v>
-      </c>
       <c r="E239" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F239" t="n">
-        <v>1143444.0298</v>
+        <v>387862</v>
       </c>
       <c r="G239" t="n">
-        <v>13.00833333333333</v>
+        <v>12.99</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
@@ -9341,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C240" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="D240" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="E240" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F240" t="n">
-        <v>248143.3218</v>
+        <v>1143444.0298</v>
       </c>
       <c r="G240" t="n">
-        <v>13.03333333333333</v>
+        <v>13.00833333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9376,7 +8798,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C241" t="n">
         <v>14.2</v>
@@ -9385,13 +8807,13 @@
         <v>14.2</v>
       </c>
       <c r="E241" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F241" t="n">
-        <v>410938.1807</v>
+        <v>248143.3218</v>
       </c>
       <c r="G241" t="n">
-        <v>13.05666666666667</v>
+        <v>13.03333333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9414,19 +8836,19 @@
         <v>14.2</v>
       </c>
       <c r="C242" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D242" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E242" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F242" t="n">
-        <v>1407902.0964</v>
+        <v>410938.1807</v>
       </c>
       <c r="G242" t="n">
-        <v>13.07833333333333</v>
+        <v>13.05666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9446,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C243" t="n">
         <v>14</v>
       </c>
-      <c r="C243" t="n">
-        <v>14.5</v>
-      </c>
       <c r="D243" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="E243" t="n">
         <v>14</v>
       </c>
       <c r="F243" t="n">
-        <v>1352515.6449</v>
+        <v>1407902.0964</v>
       </c>
       <c r="G243" t="n">
-        <v>13.10666666666667</v>
+        <v>13.07833333333333</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9481,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>14</v>
+      </c>
+      <c r="C244" t="n">
         <v>14.5</v>
       </c>
-      <c r="C244" t="n">
-        <v>14.7</v>
-      </c>
       <c r="D244" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E244" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F244" t="n">
-        <v>1132722.7126</v>
+        <v>1352515.6449</v>
       </c>
       <c r="G244" t="n">
-        <v>13.14</v>
+        <v>13.10666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9516,22 +8938,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D245" t="n">
         <v>14.9</v>
       </c>
-      <c r="C245" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>15.1</v>
-      </c>
       <c r="E245" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F245" t="n">
-        <v>1098903.28619927</v>
+        <v>1132722.7126</v>
       </c>
       <c r="G245" t="n">
-        <v>13.18</v>
+        <v>13.14</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9551,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C246" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D246" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="E246" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F246" t="n">
-        <v>1940210.6911</v>
+        <v>1098903.28619927</v>
       </c>
       <c r="G246" t="n">
-        <v>13.22333333333333</v>
+        <v>13.18</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9586,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C247" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D247" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E247" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="F247" t="n">
-        <v>1257459.7989</v>
+        <v>1940210.6911</v>
       </c>
       <c r="G247" t="n">
-        <v>13.26166666666667</v>
+        <v>13.22333333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9621,28 +9043,28 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C248" t="n">
         <v>15.2</v>
       </c>
-      <c r="C248" t="n">
-        <v>15.3</v>
-      </c>
       <c r="D248" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E248" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F248" t="n">
-        <v>793699.6988</v>
+        <v>1257459.7989</v>
       </c>
       <c r="G248" t="n">
-        <v>13.30166666666667</v>
+        <v>13.26166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
@@ -9656,28 +9078,28 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C249" t="n">
         <v>15.3</v>
       </c>
-      <c r="C249" t="n">
-        <v>15.6</v>
-      </c>
       <c r="D249" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E249" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F249" t="n">
-        <v>2616191.886</v>
+        <v>793699.6988</v>
       </c>
       <c r="G249" t="n">
-        <v>13.34666666666667</v>
+        <v>13.30166666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
@@ -9691,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C250" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D250" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E250" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F250" t="n">
-        <v>290536.0757</v>
+        <v>2616191.886</v>
       </c>
       <c r="G250" t="n">
-        <v>13.39166666666667</v>
+        <v>13.34666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9726,28 +9148,28 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="C251" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="D251" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E251" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F251" t="n">
-        <v>210141.8229</v>
+        <v>290536.0757</v>
       </c>
       <c r="G251" t="n">
-        <v>13.43</v>
+        <v>13.39166666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -9767,16 +9189,16 @@
         <v>15.2</v>
       </c>
       <c r="D252" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E252" t="n">
         <v>15.1</v>
       </c>
       <c r="F252" t="n">
-        <v>388383.0149881579</v>
+        <v>210141.8229</v>
       </c>
       <c r="G252" t="n">
-        <v>13.46833333333334</v>
+        <v>13.43</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9796,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C253" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C253" t="n">
-        <v>15.1</v>
       </c>
       <c r="D253" t="n">
         <v>15.2</v>
       </c>
       <c r="E253" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F253" t="n">
-        <v>207420.18</v>
+        <v>388383.0149881579</v>
       </c>
       <c r="G253" t="n">
-        <v>13.505</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9831,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C254" t="n">
         <v>15.1</v>
       </c>
-      <c r="C254" t="n">
-        <v>15.3</v>
-      </c>
       <c r="D254" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E254" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F254" t="n">
-        <v>539270.7144118421</v>
+        <v>207420.18</v>
       </c>
       <c r="G254" t="n">
-        <v>13.54333333333334</v>
+        <v>13.505</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9866,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C255" t="n">
         <v>15.3</v>
-      </c>
-      <c r="C255" t="n">
-        <v>15.2</v>
       </c>
       <c r="D255" t="n">
         <v>15.3</v>
       </c>
       <c r="E255" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F255" t="n">
-        <v>113327.5225</v>
+        <v>539270.7144118421</v>
       </c>
       <c r="G255" t="n">
-        <v>13.58166666666667</v>
+        <v>13.54333333333334</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9901,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C256" t="n">
         <v>15.2</v>
       </c>
-      <c r="C256" t="n">
-        <v>15</v>
-      </c>
       <c r="D256" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E256" t="n">
         <v>15.2</v>
       </c>
-      <c r="E256" t="n">
-        <v>15</v>
-      </c>
       <c r="F256" t="n">
-        <v>359633.5046</v>
+        <v>113327.5225</v>
       </c>
       <c r="G256" t="n">
-        <v>13.61666666666667</v>
+        <v>13.58166666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9936,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C257" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="E257" t="n">
-        <v>14.2</v>
+        <v>15</v>
       </c>
       <c r="F257" t="n">
-        <v>631054.7402</v>
+        <v>359633.5046</v>
       </c>
       <c r="G257" t="n">
-        <v>13.64666666666667</v>
+        <v>13.61666666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9971,7 +9393,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C258" t="n">
         <v>14.8</v>
@@ -9980,13 +9402,13 @@
         <v>14.8</v>
       </c>
       <c r="E258" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="F258" t="n">
-        <v>474072.4078</v>
+        <v>631054.7402</v>
       </c>
       <c r="G258" t="n">
-        <v>13.67833333333334</v>
+        <v>13.64666666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10009,19 +9431,19 @@
         <v>14.8</v>
       </c>
       <c r="C259" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D259" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E259" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F259" t="n">
-        <v>441448.3439</v>
+        <v>474072.4078</v>
       </c>
       <c r="G259" t="n">
-        <v>13.71333333333334</v>
+        <v>13.67833333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10041,7 +9463,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C260" t="n">
         <v>15</v>
@@ -10050,13 +9472,13 @@
         <v>15</v>
       </c>
       <c r="E260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F260" t="n">
-        <v>891019.3354</v>
+        <v>441448.3439</v>
       </c>
       <c r="G260" t="n">
-        <v>13.74666666666667</v>
+        <v>13.71333333333334</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10076,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E261" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F261" t="n">
-        <v>657986.2671000001</v>
+        <v>891019.3354</v>
       </c>
       <c r="G261" t="n">
-        <v>13.78166666666667</v>
+        <v>13.74666666666667</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10114,19 +9536,19 @@
         <v>15.1</v>
       </c>
       <c r="C262" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D262" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="E262" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F262" t="n">
-        <v>408849.8841</v>
+        <v>657986.2671000001</v>
       </c>
       <c r="G262" t="n">
-        <v>13.82166666666667</v>
+        <v>13.78166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10146,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C263" t="n">
         <v>15.3</v>
       </c>
-      <c r="C263" t="n">
-        <v>15</v>
-      </c>
       <c r="D263" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E263" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F263" t="n">
-        <v>468944.6515</v>
+        <v>408849.8841</v>
       </c>
       <c r="G263" t="n">
-        <v>13.85666666666667</v>
+        <v>13.82166666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10181,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C264" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D264" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
       </c>
       <c r="F264" t="n">
-        <v>501669.0483</v>
+        <v>468944.6515</v>
       </c>
       <c r="G264" t="n">
-        <v>13.89166666666667</v>
+        <v>13.85666666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10225,13 +9647,13 @@
         <v>15.2</v>
       </c>
       <c r="E265" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F265" t="n">
-        <v>49739.0354</v>
+        <v>501669.0483</v>
       </c>
       <c r="G265" t="n">
-        <v>13.92833333333334</v>
+        <v>13.89166666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10251,10 +9673,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C266" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D266" t="n">
         <v>15.2</v>
@@ -10263,10 +9685,10 @@
         <v>15.1</v>
       </c>
       <c r="F266" t="n">
-        <v>1094453.9242</v>
+        <v>49739.0354</v>
       </c>
       <c r="G266" t="n">
-        <v>13.96500000000001</v>
+        <v>13.92833333333334</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10295,13 +9717,13 @@
         <v>15.2</v>
       </c>
       <c r="E267" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F267" t="n">
-        <v>104370.522</v>
+        <v>1094453.9242</v>
       </c>
       <c r="G267" t="n">
-        <v>14.00166666666667</v>
+        <v>13.96500000000001</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10324,19 +9746,19 @@
         <v>15.2</v>
       </c>
       <c r="C268" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D268" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E268" t="n">
         <v>15.2</v>
       </c>
       <c r="F268" t="n">
-        <v>154995.1803</v>
+        <v>104370.522</v>
       </c>
       <c r="G268" t="n">
-        <v>14.04000000000001</v>
+        <v>14.00166666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10359,7 +9781,7 @@
         <v>15.2</v>
       </c>
       <c r="C269" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D269" t="n">
         <v>15.3</v>
@@ -10368,10 +9790,10 @@
         <v>15.2</v>
       </c>
       <c r="F269" t="n">
-        <v>773267.2283</v>
+        <v>154995.1803</v>
       </c>
       <c r="G269" t="n">
-        <v>14.08000000000001</v>
+        <v>14.04000000000001</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10394,19 +9816,19 @@
         <v>15.2</v>
       </c>
       <c r="C270" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D270" t="n">
         <v>15.3</v>
       </c>
       <c r="E270" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F270" t="n">
-        <v>398580.5795</v>
+        <v>773267.2283</v>
       </c>
       <c r="G270" t="n">
-        <v>14.12000000000001</v>
+        <v>14.08000000000001</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10429,19 +9851,19 @@
         <v>15.2</v>
       </c>
       <c r="C271" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D271" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E271" t="n">
         <v>15.1</v>
       </c>
       <c r="F271" t="n">
-        <v>244330.7359</v>
+        <v>398580.5795</v>
       </c>
       <c r="G271" t="n">
-        <v>14.15833333333334</v>
+        <v>14.12000000000001</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10464,19 +9886,19 @@
         <v>15.2</v>
       </c>
       <c r="C272" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="D272" t="n">
         <v>15.2</v>
       </c>
       <c r="E272" t="n">
-        <v>14.3</v>
+        <v>15.1</v>
       </c>
       <c r="F272" t="n">
-        <v>1394147.4146</v>
+        <v>244330.7359</v>
       </c>
       <c r="G272" t="n">
-        <v>14.18500000000001</v>
+        <v>14.15833333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10496,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C273" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D273" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E273" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F273" t="n">
-        <v>841538.0808999999</v>
+        <v>1394147.4146</v>
       </c>
       <c r="G273" t="n">
-        <v>14.21000000000001</v>
+        <v>14.18500000000001</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10531,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="C274" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D274" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="E274" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F274" t="n">
-        <v>505326.6636</v>
+        <v>841538.0808999999</v>
       </c>
       <c r="G274" t="n">
-        <v>14.23000000000001</v>
+        <v>14.21000000000001</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10566,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C275" t="n">
         <v>14.3</v>
       </c>
-      <c r="C275" t="n">
-        <v>14.2</v>
-      </c>
       <c r="D275" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E275" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F275" t="n">
-        <v>333599.606</v>
+        <v>505326.6636</v>
       </c>
       <c r="G275" t="n">
-        <v>14.25000000000001</v>
+        <v>14.23000000000001</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10601,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="C276" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D276" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="E276" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F276" t="n">
-        <v>855087.9666</v>
+        <v>333599.606</v>
       </c>
       <c r="G276" t="n">
-        <v>14.26666666666667</v>
+        <v>14.25000000000001</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10636,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C277" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D277" t="n">
         <v>14.1</v>
       </c>
       <c r="E277" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F277" t="n">
-        <v>803267.0997</v>
+        <v>855087.9666</v>
       </c>
       <c r="G277" t="n">
-        <v>14.28666666666667</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10671,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="C278" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D278" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E278" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F278" t="n">
-        <v>278766.7757</v>
+        <v>803267.0997</v>
       </c>
       <c r="G278" t="n">
-        <v>14.30500000000001</v>
+        <v>14.28666666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10706,10 +10128,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C279" t="n">
         <v>14</v>
-      </c>
-      <c r="C279" t="n">
-        <v>14.1</v>
       </c>
       <c r="D279" t="n">
         <v>14.2</v>
@@ -10718,20 +10140,26 @@
         <v>14</v>
       </c>
       <c r="F279" t="n">
-        <v>837471.2601</v>
+        <v>278766.7757</v>
       </c>
       <c r="G279" t="n">
-        <v>14.32500000000001</v>
+        <v>14.30500000000001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10741,32 +10169,38 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
+        <v>14</v>
+      </c>
+      <c r="C280" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D280" t="n">
         <v>14.2</v>
       </c>
-      <c r="C280" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D280" t="n">
-        <v>14.4</v>
-      </c>
       <c r="E280" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F280" t="n">
-        <v>219099.5634</v>
+        <v>837471.2601</v>
       </c>
       <c r="G280" t="n">
-        <v>14.34833333333335</v>
+        <v>14.32500000000001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>14</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10782,16 +10216,16 @@
         <v>14.2</v>
       </c>
       <c r="D281" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="E281" t="n">
         <v>14.2</v>
       </c>
       <c r="F281" t="n">
-        <v>185892.0522</v>
+        <v>219099.5634</v>
       </c>
       <c r="G281" t="n">
-        <v>14.37166666666668</v>
+        <v>14.34833333333335</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10801,7 +10235,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10811,22 +10249,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="C282" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D282" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="E282" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F282" t="n">
-        <v>181465.6478</v>
+        <v>185892.0522</v>
       </c>
       <c r="G282" t="n">
-        <v>14.39500000000001</v>
+        <v>14.37166666666668</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10836,7 +10274,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10846,22 +10288,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C283" t="n">
         <v>14.3</v>
-      </c>
-      <c r="C283" t="n">
-        <v>14.4</v>
       </c>
       <c r="D283" t="n">
         <v>14.4</v>
       </c>
       <c r="E283" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F283" t="n">
-        <v>428345.0869</v>
+        <v>181465.6478</v>
       </c>
       <c r="G283" t="n">
-        <v>14.41833333333335</v>
+        <v>14.39500000000001</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10871,7 +10313,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10884,19 +10330,19 @@
         <v>14.3</v>
       </c>
       <c r="C284" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D284" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E284" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="F284" t="n">
-        <v>66689.15240000001</v>
+        <v>428345.0869</v>
       </c>
       <c r="G284" t="n">
-        <v>14.44333333333335</v>
+        <v>14.41833333333335</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10906,7 +10352,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10916,22 +10366,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C285" t="n">
         <v>14.5</v>
       </c>
-      <c r="C285" t="n">
-        <v>14.9</v>
-      </c>
       <c r="D285" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E285" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="F285" t="n">
-        <v>362297.0025</v>
+        <v>66689.15240000001</v>
       </c>
       <c r="G285" t="n">
-        <v>14.47500000000001</v>
+        <v>14.44333333333335</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10941,7 +10391,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10951,22 +10405,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C286" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="D286" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E286" t="n">
         <v>14.5</v>
       </c>
       <c r="F286" t="n">
-        <v>1002167.7395</v>
+        <v>362297.0025</v>
       </c>
       <c r="G286" t="n">
-        <v>14.50000000000001</v>
+        <v>14.47500000000001</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10976,7 +10430,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10986,22 +10444,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C287" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D287" t="n">
         <v>14.8</v>
       </c>
       <c r="E287" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F287" t="n">
-        <v>213385.8515</v>
+        <v>1002167.7395</v>
       </c>
       <c r="G287" t="n">
-        <v>14.52833333333334</v>
+        <v>14.50000000000001</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -11011,7 +10469,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11024,19 +10486,19 @@
         <v>14.6</v>
       </c>
       <c r="C288" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D288" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E288" t="n">
         <v>14.6</v>
       </c>
-      <c r="E288" t="n">
-        <v>14.5</v>
-      </c>
       <c r="F288" t="n">
-        <v>113130.3737</v>
+        <v>213385.8515</v>
       </c>
       <c r="G288" t="n">
-        <v>14.55500000000001</v>
+        <v>14.52833333333334</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11046,7 +10508,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11059,19 +10525,19 @@
         <v>14.6</v>
       </c>
       <c r="C289" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D289" t="n">
         <v>14.6</v>
       </c>
       <c r="E289" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F289" t="n">
-        <v>136622.555</v>
+        <v>113130.3737</v>
       </c>
       <c r="G289" t="n">
-        <v>14.58000000000001</v>
+        <v>14.55500000000001</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11081,7 +10547,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11094,19 +10564,19 @@
         <v>14.6</v>
       </c>
       <c r="C290" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D290" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E290" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="F290" t="n">
-        <v>702573.0039</v>
+        <v>136622.555</v>
       </c>
       <c r="G290" t="n">
-        <v>14.61166666666668</v>
+        <v>14.58000000000001</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11116,7 +10586,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11126,22 +10600,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C291" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D291" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E291" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F291" t="n">
-        <v>106802.1741</v>
+        <v>702573.0039</v>
       </c>
       <c r="G291" t="n">
-        <v>14.64000000000001</v>
+        <v>14.61166666666668</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11151,8 +10625,51 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C292" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E292" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>106802.1741</v>
+      </c>
+      <c r="G292" t="n">
+        <v>14.64000000000001</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M292" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-15 BackTest FNB.xlsx
+++ b/BackTest/2019-11-15 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7084,10 +7084,14 @@
         <v>-2852504.498856523</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>13</v>
+      </c>
+      <c r="J203" t="n">
+        <v>13</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7120,8 +7124,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>13</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7163,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>13</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8305,10 +8321,14 @@
         <v>-3464125.357857275</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J240" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8338,11 +8358,19 @@
         <v>-3529388.593157275</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J241" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8399,19 @@
         <v>-3525897.364757275</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J242" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8440,19 @@
         <v>-3529467.900857275</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J243" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8481,19 @@
         <v>-3529467.900857275</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,7 +8522,7 @@
         <v>-3522084.069857275</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>12.7</v>
@@ -8478,7 +8530,11 @@
       <c r="J245" t="n">
         <v>12.7</v>
       </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8563,7 @@
         <v>-3522045.310157275</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>12.8</v>
@@ -8517,7 +8573,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L246" t="n">
@@ -8548,15 +8604,17 @@
         <v>-3522045.310157275</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J247" t="n">
         <v>12.7</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
@@ -8587,11 +8645,19 @@
         <v>-3522045.310157275</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J248" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8620,15 +8686,19 @@
         <v>-3523401.205257275</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>12.9</v>
       </c>
       <c r="J249" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8657,17 +8727,17 @@
         <v>-3523278.205257275</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>12.8</v>
       </c>
       <c r="J250" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8698,17 +8768,17 @@
         <v>-3523278.205257275</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>12.9</v>
       </c>
       <c r="J251" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
@@ -8739,11 +8809,19 @@
         <v>-3523278.205257275</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8772,15 +8850,17 @@
         <v>-3508238.732457275</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>12.9</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L253" t="n">
@@ -8811,12 +8891,14 @@
         <v>-3515971.338057275</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>13</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8850,12 +8932,14 @@
         <v>-3515971.338057275</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>12.9</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8889,12 +8973,14 @@
         <v>-3514328.417757275</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>12.9</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8928,12 +9014,14 @@
         <v>-3548913.114257275</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>13</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8967,12 +9055,14 @@
         <v>-3548913.114257275</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>12.9</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,12 +9096,14 @@
         <v>-3547599.114257275</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>12.9</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,12 +9137,14 @@
         <v>-3547599.114257275</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>13</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9084,12 +9178,14 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>13</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9123,12 +9219,14 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>12.9</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9162,10 +9260,14 @@
         <v>-3681820.798357275</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J263" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9199,10 +9301,14 @@
         <v>-3820729.353557275</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>13</v>
+      </c>
+      <c r="J264" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9236,10 +9342,14 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J265" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9273,10 +9383,14 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>13</v>
+      </c>
+      <c r="J266" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9310,10 +9424,14 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>13</v>
+      </c>
+      <c r="J267" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9347,10 +9465,14 @@
         <v>-3883077.921657275</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>13</v>
+      </c>
+      <c r="J268" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,10 +9506,14 @@
         <v>-3883038.921657275</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J269" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9421,12 +9547,14 @@
         <v>-3883077.984157275</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>12.9</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9460,12 +9588,14 @@
         <v>-4106588.048357275</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>12.8</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9499,12 +9629,14 @@
         <v>-4102227.438157275</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>12.7</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9538,12 +9670,14 @@
         <v>-4102014.438157275</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>12.9</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9577,12 +9711,14 @@
         <v>-4140380.063257275</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>13.1</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9616,12 +9752,14 @@
         <v>-4140380.063257275</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>13</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9655,12 +9793,14 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>13</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9694,12 +9834,14 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>12.9</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,12 +9875,14 @@
         <v>-4140471.143457275</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>12.9</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,12 +9916,14 @@
         <v>-4269382.981757275</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>12.9</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,12 +9957,14 @@
         <v>-4269382.981757275</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>12.8</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9850,12 +9998,14 @@
         <v>-4268607.787958825</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>12.8</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9889,12 +10039,14 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>12.9</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9928,12 +10080,14 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>13</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9967,12 +10121,14 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>13</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,12 +10162,14 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>13</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10045,10 +10203,14 @@
         <v>-4267762.721258825</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>13</v>
+      </c>
+      <c r="J286" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,10 +10244,14 @@
         <v>-4306128.346358825</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,10 +10285,14 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J288" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,10 +10326,14 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,12 +10367,12 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10235,7 +10409,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10272,7 +10448,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10309,7 +10487,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10346,7 +10526,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10383,7 +10565,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,7 +10604,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,7 +10643,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10494,7 +10682,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10531,7 +10721,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10568,7 +10760,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10605,7 +10799,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10642,7 +10838,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10679,7 +10877,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,7 +10916,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10753,7 +10955,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10790,7 +10994,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10827,7 +11033,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10864,7 +11072,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10901,7 +11111,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10938,7 +11150,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,7 +11189,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,7 +11228,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,7 +11267,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11086,7 +11306,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,7 +11345,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11160,7 +11384,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11194,446 +11420,530 @@
         <v>3733746.911752287</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C318" t="n">
+        <v>15</v>
+      </c>
+      <c r="D318" t="n">
+        <v>15</v>
+      </c>
+      <c r="E318" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>441448.3439</v>
+      </c>
+      <c r="G318" t="n">
+        <v>4175195.255652287</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>15</v>
+      </c>
+      <c r="C319" t="n">
+        <v>15</v>
+      </c>
+      <c r="D319" t="n">
+        <v>15</v>
+      </c>
+      <c r="E319" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F319" t="n">
+        <v>891019.3354</v>
+      </c>
+      <c r="G319" t="n">
+        <v>4175195.255652287</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D320" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>15</v>
+      </c>
+      <c r="F320" t="n">
+        <v>657986.2671000001</v>
+      </c>
+      <c r="G320" t="n">
+        <v>4833181.522752287</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D321" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E321" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>408849.8841</v>
+      </c>
+      <c r="G321" t="n">
+        <v>5242031.406852287</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C322" t="n">
+        <v>15</v>
+      </c>
+      <c r="D322" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E322" t="n">
+        <v>15</v>
+      </c>
+      <c r="F322" t="n">
+        <v>468944.6515</v>
+      </c>
+      <c r="G322" t="n">
+        <v>4773086.755352288</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E323" t="n">
+        <v>15</v>
+      </c>
+      <c r="F323" t="n">
+        <v>501669.0483</v>
+      </c>
+      <c r="G323" t="n">
+        <v>5274755.803652287</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>49739.0354</v>
+      </c>
+      <c r="G324" t="n">
+        <v>5274755.803652287</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C325" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1094453.9242</v>
+      </c>
+      <c r="G325" t="n">
+        <v>6369209.727852288</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C326" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F326" t="n">
+        <v>104370.522</v>
+      </c>
+      <c r="G326" t="n">
+        <v>6369209.727852288</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C327" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E327" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F327" t="n">
+        <v>154995.1803</v>
+      </c>
+      <c r="G327" t="n">
+        <v>6524204.908152288</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C328" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D328" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F328" t="n">
+        <v>773267.2283</v>
+      </c>
+      <c r="G328" t="n">
+        <v>5750937.679852288</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C329" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E329" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>398580.5795</v>
+      </c>
+      <c r="G329" t="n">
+        <v>6149518.259352288</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F330" t="n">
+        <v>244330.7359</v>
+      </c>
+      <c r="G330" t="n">
+        <v>5905187.523452288</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K330" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C318" t="n">
-        <v>15</v>
-      </c>
-      <c r="D318" t="n">
-        <v>15</v>
-      </c>
-      <c r="E318" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F318" t="n">
-        <v>441448.3439</v>
-      </c>
-      <c r="G318" t="n">
-        <v>4175195.255652287</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>15</v>
-      </c>
-      <c r="C319" t="n">
-        <v>15</v>
-      </c>
-      <c r="D319" t="n">
-        <v>15</v>
-      </c>
-      <c r="E319" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F319" t="n">
-        <v>891019.3354</v>
-      </c>
-      <c r="G319" t="n">
-        <v>4175195.255652287</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C320" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D320" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E320" t="n">
-        <v>15</v>
-      </c>
-      <c r="F320" t="n">
-        <v>657986.2671000001</v>
-      </c>
-      <c r="G320" t="n">
-        <v>4833181.522752287</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C321" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D321" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E321" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F321" t="n">
-        <v>408849.8841</v>
-      </c>
-      <c r="G321" t="n">
-        <v>5242031.406852287</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C322" t="n">
-        <v>15</v>
-      </c>
-      <c r="D322" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E322" t="n">
-        <v>15</v>
-      </c>
-      <c r="F322" t="n">
-        <v>468944.6515</v>
-      </c>
-      <c r="G322" t="n">
-        <v>4773086.755352288</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C323" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D323" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E323" t="n">
-        <v>15</v>
-      </c>
-      <c r="F323" t="n">
-        <v>501669.0483</v>
-      </c>
-      <c r="G323" t="n">
-        <v>5274755.803652287</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C324" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E324" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F324" t="n">
-        <v>49739.0354</v>
-      </c>
-      <c r="G324" t="n">
-        <v>5274755.803652287</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C325" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D325" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E325" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F325" t="n">
-        <v>1094453.9242</v>
-      </c>
-      <c r="G325" t="n">
-        <v>6369209.727852288</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C326" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D326" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E326" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F326" t="n">
-        <v>104370.522</v>
-      </c>
-      <c r="G326" t="n">
-        <v>6369209.727852288</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C327" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D327" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E327" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F327" t="n">
-        <v>154995.1803</v>
-      </c>
-      <c r="G327" t="n">
-        <v>6524204.908152288</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C328" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D328" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E328" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F328" t="n">
-        <v>773267.2283</v>
-      </c>
-      <c r="G328" t="n">
-        <v>5750937.679852288</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C329" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D329" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E329" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F329" t="n">
-        <v>398580.5795</v>
-      </c>
-      <c r="G329" t="n">
-        <v>6149518.259352288</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C330" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D330" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E330" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F330" t="n">
-        <v>244330.7359</v>
-      </c>
-      <c r="G330" t="n">
-        <v>5905187.523452288</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+        <v>1.183976377952756</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1.086614173228347</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11658,7 +11968,7 @@
         <v>4511040.108852289</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11691,7 +12001,7 @@
         <v>5352578.189752288</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11724,7 +12034,7 @@
         <v>4847251.526152289</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11757,7 +12067,7 @@
         <v>4513651.920152289</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11790,7 +12100,7 @@
         <v>3658563.953552289</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11823,7 +12133,7 @@
         <v>4461831.053252289</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11856,7 +12166,7 @@
         <v>4183064.277552289</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11889,7 +12199,7 @@
         <v>5020535.537652289</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11922,7 +12232,7 @@
         <v>5239635.101052289</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11988,7 +12298,7 @@
         <v>5421100.748852289</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12021,7 +12331,7 @@
         <v>5849445.83575229</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12054,7 +12364,7 @@
         <v>5916134.98815229</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12087,7 +12397,7 @@
         <v>6278431.99065229</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12120,7 +12430,7 @@
         <v>5276264.25115229</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12153,7 +12463,7 @@
         <v>5489650.10265229</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12186,7 +12496,7 @@
         <v>5376519.72895229</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12219,7 +12529,7 @@
         <v>5513142.283952289</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12252,7 +12562,7 @@
         <v>6215715.287852289</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12285,7 +12595,7 @@
         <v>6108913.113752289</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12318,7 +12628,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12351,7 +12661,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12384,7 +12694,7 @@
         <v>4681629.418052289</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12417,7 +12727,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12450,7 +12760,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12483,7 +12793,7 @@
         <v>6704084.547352289</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12516,7 +12826,7 @@
         <v>5109124.607452288</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12582,7 +12892,7 @@
         <v>5112138.390752289</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12615,7 +12925,7 @@
         <v>5112138.390752289</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12626,6 +12936,6 @@
       <c r="M360" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest FNB.xlsx
+++ b/BackTest/2019-11-15 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7084,14 +7084,10 @@
         <v>-2852504.498856523</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>13</v>
-      </c>
-      <c r="J203" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
@@ -7124,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>13</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>13</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8321,14 +8305,10 @@
         <v>-3464125.357857275</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J240" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
@@ -8358,511 +8338,467 @@
         <v>-3529388.593157275</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C242" t="n">
         <v>12.8</v>
       </c>
-      <c r="J241" t="n">
+      <c r="D242" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3491.2284</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-3525897.364757275</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C243" t="n">
         <v>12.7</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="D243" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3570.5361</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-3529467.900857275</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-3529467.900857275</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E245" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7383.831</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-3522084.069857275</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J245" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>38.7597</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-3522045.310157275</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J246" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C247" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1091.4728</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-3522045.310157275</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J247" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F248" t="n">
+        <v>334</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-3522045.310157275</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1355.8951</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-3523401.205257275</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J249" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C250" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F250" t="n">
+        <v>123</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-3523278.205257275</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J250" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>843</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-3523278.205257275</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-3523278.205257275</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C253" t="n">
+        <v>13</v>
+      </c>
+      <c r="D253" t="n">
+        <v>13</v>
+      </c>
+      <c r="E253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F253" t="n">
+        <v>15039.4728</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-3508238.732457275</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J253" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C242" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D242" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E242" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3491.2284</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-3525897.364757275</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J242" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C243" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D243" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F243" t="n">
-        <v>3570.5361</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-3529467.900857275</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J243" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-3529467.900857275</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J244" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C245" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D245" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E245" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F245" t="n">
-        <v>7383.831</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-3522084.069857275</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J245" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C246" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D246" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E246" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F246" t="n">
-        <v>38.7597</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-3522045.310157275</v>
-      </c>
-      <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J246" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C247" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D247" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E247" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1091.4728</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-3522045.310157275</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J247" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F248" t="n">
-        <v>334</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-3522045.310157275</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J248" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C249" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D249" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E249" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1355.8951</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-3523401.205257275</v>
-      </c>
-      <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J249" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C250" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D250" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E250" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F250" t="n">
-        <v>123</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-3523278.205257275</v>
-      </c>
-      <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J250" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F251" t="n">
-        <v>843</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-3523278.205257275</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J251" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C252" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D252" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E252" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F252" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-3523278.205257275</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J252" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C253" t="n">
-        <v>13</v>
-      </c>
-      <c r="D253" t="n">
-        <v>13</v>
-      </c>
-      <c r="E253" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F253" t="n">
-        <v>15039.4728</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-3508238.732457275</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J253" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8897,7 +8833,7 @@
         <v>13</v>
       </c>
       <c r="J254" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8938,7 +8874,7 @@
         <v>12.9</v>
       </c>
       <c r="J255" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8979,7 +8915,7 @@
         <v>12.9</v>
       </c>
       <c r="J256" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9020,7 +8956,7 @@
         <v>13</v>
       </c>
       <c r="J257" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9061,7 +8997,7 @@
         <v>12.9</v>
       </c>
       <c r="J258" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9102,7 +9038,7 @@
         <v>12.9</v>
       </c>
       <c r="J259" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9143,7 +9079,7 @@
         <v>13</v>
       </c>
       <c r="J260" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9178,13 +9114,11 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9225,7 +9159,7 @@
         <v>12.9</v>
       </c>
       <c r="J262" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9266,7 +9200,7 @@
         <v>12.9</v>
       </c>
       <c r="J263" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9301,13 +9235,11 @@
         <v>-3820729.353557275</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9342,13 +9274,11 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9383,13 +9313,11 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9424,13 +9352,11 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9465,13 +9391,11 @@
         <v>-3883077.921657275</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9512,7 +9436,7 @@
         <v>12.8</v>
       </c>
       <c r="J269" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9553,7 +9477,7 @@
         <v>12.9</v>
       </c>
       <c r="J270" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9594,7 +9518,7 @@
         <v>12.8</v>
       </c>
       <c r="J271" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9635,7 +9559,7 @@
         <v>12.7</v>
       </c>
       <c r="J272" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9676,7 +9600,7 @@
         <v>12.9</v>
       </c>
       <c r="J273" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9717,7 +9641,7 @@
         <v>13.1</v>
       </c>
       <c r="J274" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9758,7 +9682,7 @@
         <v>13</v>
       </c>
       <c r="J275" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9799,7 +9723,7 @@
         <v>13</v>
       </c>
       <c r="J276" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9840,7 +9764,7 @@
         <v>12.9</v>
       </c>
       <c r="J277" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9881,7 +9805,7 @@
         <v>12.9</v>
       </c>
       <c r="J278" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9922,7 +9846,7 @@
         <v>12.9</v>
       </c>
       <c r="J279" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9963,7 +9887,7 @@
         <v>12.8</v>
       </c>
       <c r="J280" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10004,7 +9928,7 @@
         <v>12.8</v>
       </c>
       <c r="J281" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10045,7 +9969,7 @@
         <v>12.9</v>
       </c>
       <c r="J282" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10086,7 +10010,7 @@
         <v>13</v>
       </c>
       <c r="J283" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10121,13 +10045,11 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10162,13 +10084,11 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10203,13 +10123,11 @@
         <v>-4267762.721258825</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10244,13 +10162,11 @@
         <v>-4306128.346358825</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10285,13 +10201,11 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10326,13 +10240,11 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10371,7 +10283,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10410,7 +10322,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10449,7 +10361,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10488,7 +10400,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10527,7 +10439,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10566,7 +10478,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10605,7 +10517,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10644,7 +10556,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10683,7 +10595,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10722,7 +10634,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10761,7 +10673,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10800,7 +10712,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10839,7 +10751,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10878,7 +10790,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10913,21 +10825,23 @@
         <v>913947.566240445</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+        <v>1.165542635658915</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1.086614173228347</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10955,14 +10869,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10902,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11033,14 +10935,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +10968,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11111,14 +11001,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +11034,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11189,14 +11067,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11228,14 +11100,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11267,14 +11133,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +11166,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +11199,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +11232,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11423,14 +11265,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +11298,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +11331,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +11364,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +11397,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11618,14 +11430,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11657,14 +11463,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11696,14 +11496,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11735,14 +11529,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11774,14 +11562,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +11595,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11852,14 +11628,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11891,14 +11661,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11927,23 +11691,15 @@
         <v>5905187.523452288</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
-        <v>1.183976377952756</v>
-      </c>
-      <c r="M330" t="n">
-        <v>1.086614173228347</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11968,7 +11724,7 @@
         <v>4511040.108852289</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12001,7 +11757,7 @@
         <v>5352578.189752288</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12034,7 +11790,7 @@
         <v>4847251.526152289</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12067,7 +11823,7 @@
         <v>4513651.920152289</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12331,7 +12087,7 @@
         <v>5849445.83575229</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12364,7 +12120,7 @@
         <v>5916134.98815229</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12397,7 +12153,7 @@
         <v>6278431.99065229</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12430,7 +12186,7 @@
         <v>5276264.25115229</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12463,7 +12219,7 @@
         <v>5489650.10265229</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12496,7 +12252,7 @@
         <v>5376519.72895229</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12529,7 +12285,7 @@
         <v>5513142.283952289</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12562,7 +12318,7 @@
         <v>6215715.287852289</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12595,7 +12351,7 @@
         <v>6108913.113752289</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12628,7 +12384,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12661,7 +12417,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12694,7 +12450,7 @@
         <v>4681629.418052289</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12727,7 +12483,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12760,7 +12516,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12793,7 +12549,7 @@
         <v>6704084.547352289</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12936,6 +12692,6 @@
       <c r="M360" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-15 BackTest FNB.xlsx
+++ b/BackTest/2019-11-15 BackTest FNB.xlsx
@@ -8437,10 +8437,14 @@
         <v>-3529467.900857275</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J244" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -8478,7 +8482,11 @@
       <c r="J245" t="n">
         <v>12.7</v>
       </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8554,50 +8562,50 @@
         <v>12.9</v>
       </c>
       <c r="J247" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
+        <v>12.9</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F248" t="n">
+        <v>334</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-3522045.310157275</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J248" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F248" t="n">
-        <v>334</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-3522045.310157275</v>
-      </c>
-      <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J248" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8673,50 +8681,50 @@
         <v>12.8</v>
       </c>
       <c r="J250" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
+        <v>12.8</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F251" t="n">
+        <v>843</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-3523278.205257275</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J251" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F251" t="n">
-        <v>843</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-3523278.205257275</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="J251" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8751,7 +8759,7 @@
         <v>12.9</v>
       </c>
       <c r="J252" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8792,7 +8800,7 @@
         <v>12.9</v>
       </c>
       <c r="J253" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8833,7 +8841,7 @@
         <v>13</v>
       </c>
       <c r="J254" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8874,7 +8882,7 @@
         <v>12.9</v>
       </c>
       <c r="J255" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8915,7 +8923,7 @@
         <v>12.9</v>
       </c>
       <c r="J256" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -8956,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="J257" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -8997,7 +9005,7 @@
         <v>12.9</v>
       </c>
       <c r="J258" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9038,7 +9046,7 @@
         <v>12.9</v>
       </c>
       <c r="J259" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9079,7 +9087,7 @@
         <v>13</v>
       </c>
       <c r="J260" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9114,11 +9122,13 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>13</v>
+      </c>
       <c r="J261" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9153,13 +9163,11 @@
         <v>-3681859.798357275</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>12.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9200,7 +9208,7 @@
         <v>12.9</v>
       </c>
       <c r="J263" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9235,11 +9243,13 @@
         <v>-3820729.353557275</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>13</v>
+      </c>
       <c r="J264" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9274,11 +9284,13 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J265" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9313,11 +9325,13 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>13</v>
+      </c>
       <c r="J266" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9352,11 +9366,13 @@
         <v>-3751549.353557275</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>13</v>
+      </c>
       <c r="J267" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9391,11 +9407,13 @@
         <v>-3883077.921657275</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>13</v>
+      </c>
       <c r="J268" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9436,7 +9454,7 @@
         <v>12.8</v>
       </c>
       <c r="J269" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9477,7 +9495,7 @@
         <v>12.9</v>
       </c>
       <c r="J270" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9518,7 +9536,7 @@
         <v>12.8</v>
       </c>
       <c r="J271" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9559,7 +9577,7 @@
         <v>12.7</v>
       </c>
       <c r="J272" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9600,7 +9618,7 @@
         <v>12.9</v>
       </c>
       <c r="J273" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9641,7 +9659,7 @@
         <v>13.1</v>
       </c>
       <c r="J274" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9682,7 +9700,7 @@
         <v>13</v>
       </c>
       <c r="J275" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9723,7 +9741,7 @@
         <v>13</v>
       </c>
       <c r="J276" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9764,7 +9782,7 @@
         <v>12.9</v>
       </c>
       <c r="J277" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9805,7 +9823,7 @@
         <v>12.9</v>
       </c>
       <c r="J278" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9846,7 +9864,7 @@
         <v>12.9</v>
       </c>
       <c r="J279" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9887,7 +9905,7 @@
         <v>12.8</v>
       </c>
       <c r="J280" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9928,7 +9946,7 @@
         <v>12.8</v>
       </c>
       <c r="J281" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9969,7 +9987,7 @@
         <v>12.9</v>
       </c>
       <c r="J282" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10010,7 +10028,7 @@
         <v>13</v>
       </c>
       <c r="J283" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10045,11 +10063,13 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>13</v>
+      </c>
       <c r="J284" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10084,11 +10104,13 @@
         <v>-4267803.721258825</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>13</v>
+      </c>
       <c r="J285" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10123,11 +10145,13 @@
         <v>-4267762.721258825</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>13</v>
+      </c>
       <c r="J286" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10162,11 +10186,13 @@
         <v>-4306128.346358825</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J287" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10201,11 +10227,13 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>12.9</v>
+      </c>
       <c r="J288" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10240,11 +10268,13 @@
         <v>-4146983.706158825</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J289" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10283,7 +10313,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10322,7 +10352,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10361,7 +10391,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10400,7 +10430,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10439,7 +10469,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10478,7 +10508,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10517,7 +10547,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10556,7 +10586,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10595,7 +10625,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10634,7 +10664,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10673,7 +10703,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10712,7 +10742,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10751,7 +10781,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10790,7 +10820,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10825,419 +10855,491 @@
         <v>913947.566240445</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C305" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D305" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E305" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1940210.6911</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2854158.257340445</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C306" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D306" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E306" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1257459.7989</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1596698.458440445</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C307" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E307" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F307" t="n">
+        <v>793699.6988</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2390398.157240445</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C308" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D308" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E308" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2616191.886</v>
+      </c>
+      <c r="G308" t="n">
+        <v>5006590.043240445</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C309" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D309" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="E309" t="n">
+        <v>15</v>
+      </c>
+      <c r="F309" t="n">
+        <v>290536.0757</v>
+      </c>
+      <c r="G309" t="n">
+        <v>4716053.967540445</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D310" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E310" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F310" t="n">
+        <v>210141.8229</v>
+      </c>
+      <c r="G310" t="n">
+        <v>4505912.144640445</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E311" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F311" t="n">
+        <v>388383.0149881579</v>
+      </c>
+      <c r="G311" t="n">
+        <v>4505912.144640445</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C312" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D312" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>15</v>
+      </c>
+      <c r="F312" t="n">
+        <v>207420.18</v>
+      </c>
+      <c r="G312" t="n">
+        <v>4298491.964640445</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D313" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E313" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F313" t="n">
+        <v>539270.7144118421</v>
+      </c>
+      <c r="G313" t="n">
+        <v>4837762.679052287</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C314" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D314" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E314" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F314" t="n">
+        <v>113327.5225</v>
+      </c>
+      <c r="G314" t="n">
+        <v>4724435.156552287</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C315" t="n">
+        <v>15</v>
+      </c>
+      <c r="D315" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>15</v>
+      </c>
+      <c r="F315" t="n">
+        <v>359633.5046</v>
+      </c>
+      <c r="G315" t="n">
+        <v>4364801.651952287</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C316" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D316" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E316" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>631054.7402</v>
+      </c>
+      <c r="G316" t="n">
+        <v>3733746.911752287</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1.165542635658915</v>
-      </c>
-      <c r="M304" t="n">
+      <c r="L316" t="n">
+        <v>1.15125</v>
+      </c>
+      <c r="M316" t="n">
         <v>1.086614173228347</v>
       </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C305" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D305" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E305" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F305" t="n">
-        <v>1940210.6911</v>
-      </c>
-      <c r="G305" t="n">
-        <v>2854158.257340445</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C306" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D306" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E306" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F306" t="n">
-        <v>1257459.7989</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1596698.458440445</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C307" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D307" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E307" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F307" t="n">
-        <v>793699.6988</v>
-      </c>
-      <c r="G307" t="n">
-        <v>2390398.157240445</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C308" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E308" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F308" t="n">
-        <v>2616191.886</v>
-      </c>
-      <c r="G308" t="n">
-        <v>5006590.043240445</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C309" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D309" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E309" t="n">
-        <v>15</v>
-      </c>
-      <c r="F309" t="n">
-        <v>290536.0757</v>
-      </c>
-      <c r="G309" t="n">
-        <v>4716053.967540445</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C310" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D310" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E310" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F310" t="n">
-        <v>210141.8229</v>
-      </c>
-      <c r="G310" t="n">
-        <v>4505912.144640445</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C311" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D311" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E311" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F311" t="n">
-        <v>388383.0149881579</v>
-      </c>
-      <c r="G311" t="n">
-        <v>4505912.144640445</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C312" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E312" t="n">
-        <v>15</v>
-      </c>
-      <c r="F312" t="n">
-        <v>207420.18</v>
-      </c>
-      <c r="G312" t="n">
-        <v>4298491.964640445</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C313" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D313" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E313" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F313" t="n">
-        <v>539270.7144118421</v>
-      </c>
-      <c r="G313" t="n">
-        <v>4837762.679052287</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C314" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D314" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E314" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F314" t="n">
-        <v>113327.5225</v>
-      </c>
-      <c r="G314" t="n">
-        <v>4724435.156552287</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C315" t="n">
-        <v>15</v>
-      </c>
-      <c r="D315" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E315" t="n">
-        <v>15</v>
-      </c>
-      <c r="F315" t="n">
-        <v>359633.5046</v>
-      </c>
-      <c r="G315" t="n">
-        <v>4364801.651952287</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C316" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D316" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E316" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F316" t="n">
-        <v>631054.7402</v>
-      </c>
-      <c r="G316" t="n">
-        <v>3733746.911752287</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11427,7 +11529,7 @@
         <v>4773086.755352288</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11460,7 +11562,7 @@
         <v>5274755.803652287</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11493,7 +11595,7 @@
         <v>5274755.803652287</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11526,7 +11628,7 @@
         <v>6369209.727852288</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11559,7 +11661,7 @@
         <v>6369209.727852288</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11592,7 +11694,7 @@
         <v>6524204.908152288</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11625,7 +11727,7 @@
         <v>5750937.679852288</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11658,7 +11760,7 @@
         <v>6149518.259352288</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11691,7 +11793,7 @@
         <v>5905187.523452288</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11724,7 +11826,7 @@
         <v>4511040.108852289</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11757,7 +11859,7 @@
         <v>5352578.189752288</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11790,7 +11892,7 @@
         <v>4847251.526152289</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11856,7 +11958,7 @@
         <v>3658563.953552289</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11889,7 +11991,7 @@
         <v>4461831.053252289</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11922,7 +12024,7 @@
         <v>4183064.277552289</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11955,7 +12057,7 @@
         <v>5020535.537652289</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12351,7 +12453,7 @@
         <v>6108913.113752289</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12384,7 +12486,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12417,7 +12519,7 @@
         <v>6325044.739152289</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12450,7 +12552,7 @@
         <v>4681629.418052289</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12483,7 +12585,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12516,7 +12618,7 @@
         <v>5111637.297552289</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
